--- a/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_17_27.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_17_27.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1783348.259381392</v>
+        <v>1779043.692598067</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>12445480.89855084</v>
+        <v>12445534.67060185</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>417425.631344898</v>
+        <v>416855.1052283188</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>10214746.1713184</v>
+        <v>10214955.81384542</v>
       </c>
     </row>
     <row r="11">
@@ -658,28 +658,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>263.7138800015061</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>263.7138800015062</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>110.096520216718</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>219.4450108596165</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>12.83417464571001</v>
+        <v>263.7138800015062</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>115.3066195468971</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -724,10 +724,10 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>263.7138800015061</v>
+        <v>263.7138800015062</v>
       </c>
       <c r="Y2" t="n">
-        <v>263.7138800015061</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -740,13 +740,13 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
         <v>145.0692123933839</v>
@@ -758,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>43.9218040015056</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -785,10 +785,10 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>18.15252495527768</v>
+        <v>18.15252495527767</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>147.1499354121988</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
@@ -800,13 +800,13 @@
         <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>208.6312349033472</v>
+        <v>0</v>
       </c>
       <c r="X3" t="n">
         <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>90.33968495973951</v>
       </c>
     </row>
     <row r="4">
@@ -816,7 +816,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
@@ -825,19 +825,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.8836670385466</v>
       </c>
       <c r="H4" t="n">
-        <v>107.7631427180074</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>122.1505735248085</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -864,10 +864,10 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>127.5046028836639</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>204.7191642435938</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -882,7 +882,7 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>68.98787350302072</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -904,16 +904,16 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>263.7138800015061</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>6.876045741711437</v>
+        <v>263.7138800015062</v>
       </c>
       <c r="G5" t="n">
-        <v>12.83417464571001</v>
+        <v>263.7138800015062</v>
       </c>
       <c r="H5" t="n">
-        <v>263.7138800015061</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>115.3066195468971</v>
@@ -946,7 +946,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>97.26234557100793</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -961,10 +961,10 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>116.9725659584295</v>
       </c>
       <c r="Y5" t="n">
-        <v>263.7138800015061</v>
+        <v>263.7138800015062</v>
       </c>
     </row>
     <row r="6">
@@ -974,28 +974,28 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>136.0227195864234</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>43.9218040015056</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1022,28 +1022,28 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>18.15252495527768</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>133.5960262881774</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>194.8409875848768</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>225.8544875035546</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>107.2977824924682</v>
       </c>
     </row>
     <row r="7">
@@ -1056,13 +1056,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -1077,7 +1077,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>15.07219909888209</v>
+        <v>15.07219909888208</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1107,22 +1107,22 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>223.2143458795659</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>233.1586823138536</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>68.36004337105362</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1135,10 +1135,10 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -1147,13 +1147,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>411.547702772954</v>
+        <v>411.5491597882495</v>
       </c>
       <c r="H8" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>65.70991267247044</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1183,10 +1183,10 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>123.4522153987944</v>
+        <v>123.4854171348405</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>140.9399979330726</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -1198,10 +1198,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>135.1110683069406</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1226,13 +1226,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>135.3343964518635</v>
+        <v>133.558726859249</v>
       </c>
       <c r="H9" t="n">
-        <v>92.83156789269626</v>
+        <v>92.83909691614504</v>
       </c>
       <c r="I9" t="n">
-        <v>20.22295923705012</v>
+        <v>20.24979976115227</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1262,13 +1262,13 @@
         <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>134.3646350838588</v>
+        <v>134.3791152901738</v>
       </c>
       <c r="T9" t="n">
-        <v>192.0665623188214</v>
+        <v>192.0697045406877</v>
       </c>
       <c r="U9" t="n">
-        <v>225.8092030868072</v>
+        <v>225.8092543744329</v>
       </c>
       <c r="V9" t="n">
         <v>232.8005871494253</v>
@@ -1290,28 +1290,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>90.06308666747555</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>36.25605419981144</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>147.2515091551288</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>104.7965952039006</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1338,28 +1338,28 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1384,10 +1384,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>409.8053789271548</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H11" t="n">
-        <v>280.6055821380859</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1420,13 +1420,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.7490107626452</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T11" t="n">
-        <v>199.0311623452478</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U11" t="n">
-        <v>250.9058642207981</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -1435,7 +1435,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784686</v>
       </c>
       <c r="Y11" t="n">
         <v>386.2379386560536</v>
@@ -1463,10 +1463,10 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G12" t="n">
-        <v>134.4021710092738</v>
+        <v>134.4010792945512</v>
       </c>
       <c r="H12" t="n">
-        <v>83.82823269715951</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1499,13 +1499,13 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>117.0489563585645</v>
+        <v>117.0286782364134</v>
       </c>
       <c r="T12" t="n">
-        <v>188.3090395918921</v>
+        <v>188.3046392154443</v>
       </c>
       <c r="U12" t="n">
-        <v>225.7478724655842</v>
+        <v>225.7478006422472</v>
       </c>
       <c r="V12" t="n">
         <v>232.8005871494253</v>
@@ -1542,13 +1542,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5250535492193</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>140.3028503125647</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.29336059121934</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,19 +1575,19 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.4163999908187</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0422364341347</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
-        <v>175.7791672583793</v>
+        <v>1.839588425939337</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
@@ -1624,7 +1624,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H14" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1657,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1764,28 +1764,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>63.1628130171261</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1858,7 +1858,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H17" t="n">
         <v>283.1540821444137</v>
@@ -1909,7 +1909,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
-        <v>369.7311006784686</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
         <v>386.2379386560536</v>
@@ -2001,28 +2001,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>138.2893995353463</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>18.70843787977262</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2092,13 +2092,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>406.8760457417109</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
         <v>409.8033385187866</v>
       </c>
       <c r="H20" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2238,7 +2238,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>45.16086499484859</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
@@ -2250,7 +2250,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>139.1630968205461</v>
       </c>
       <c r="G22" t="n">
         <v>165.5241382922688</v>
@@ -2295,19 +2295,19 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2374,7 +2374,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U23" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V23" t="n">
         <v>327.7522584701349</v>
@@ -2475,19 +2475,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>114.2821160880066</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>23.62554568141394</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>165.5241382922688</v>
@@ -2496,7 +2496,7 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2557,7 +2557,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
-        <v>365.2728917710071</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
         <v>354.683041620683</v>
@@ -2614,7 +2614,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V26" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701346</v>
       </c>
       <c r="W26" t="n">
         <v>349.240968717413</v>
@@ -2718,13 +2718,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>165.5241382922688</v>
@@ -2766,7 +2766,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
         <v>286.1844743892441</v>
@@ -2775,13 +2775,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>150.672680124696</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>80.08971311158706</v>
       </c>
     </row>
     <row r="29">
@@ -2809,7 +2809,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H29" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2848,7 +2848,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U29" t="n">
-        <v>250.9057009881275</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V29" t="n">
         <v>327.7522584701349</v>
@@ -2964,7 +2964,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922726</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
         <v>140.2947128462239</v>
@@ -3000,19 +3000,19 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
-        <v>105.6507867899533</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>245.8796921214428</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
@@ -3192,19 +3192,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3234,13 +3234,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>9.146142788179482</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
-        <v>107.4021082756239</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
         <v>286.1844743892441</v>
@@ -3268,7 +3268,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710071</v>
       </c>
       <c r="D35" t="n">
         <v>354.683041620683</v>
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695439</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3444,7 +3444,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,28 +3471,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
-        <v>286.1844743892441</v>
+        <v>35.88641949135544</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>105.9893107373009</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520978</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3666,22 +3666,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I40" t="n">
-        <v>55.52079624060383</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,10 +3708,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
         <v>217.4054503272883</v>
@@ -3900,25 +3900,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>110.0177171766856</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>10.63412424768206</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,13 +3945,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
         <v>286.1844743892441</v>
@@ -4140,19 +4140,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4182,10 +4182,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
-        <v>55.5207962406042</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
         <v>217.4054503272883</v>
@@ -4306,46 +4306,46 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>255.7225503044907</v>
+        <v>788.4778634388467</v>
       </c>
       <c r="C2" t="n">
-        <v>255.7225503044907</v>
+        <v>522.1002068716687</v>
       </c>
       <c r="D2" t="n">
-        <v>255.7225503044907</v>
+        <v>410.8916005921556</v>
       </c>
       <c r="E2" t="n">
-        <v>255.7225503044907</v>
+        <v>410.8916005921556</v>
       </c>
       <c r="F2" t="n">
-        <v>34.06092317356495</v>
+        <v>403.9460998429521</v>
       </c>
       <c r="G2" t="n">
-        <v>21.09711040012049</v>
+        <v>137.5684432757741</v>
       </c>
       <c r="H2" t="n">
-        <v>21.09711040012049</v>
+        <v>137.5684432757741</v>
       </c>
       <c r="I2" t="n">
-        <v>21.09711040012049</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="J2" t="n">
         <v>49.28269087917579</v>
       </c>
       <c r="K2" t="n">
-        <v>142.264087905254</v>
+        <v>142.2640879052542</v>
       </c>
       <c r="L2" t="n">
-        <v>294.5174947515905</v>
+        <v>294.5174947515907</v>
       </c>
       <c r="M2" t="n">
-        <v>495.5981834030603</v>
+        <v>495.5981834030605</v>
       </c>
       <c r="N2" t="n">
-        <v>704.5463761991316</v>
+        <v>704.5463761991318</v>
       </c>
       <c r="O2" t="n">
-        <v>888.5149683358413</v>
+        <v>888.5149683358414</v>
       </c>
       <c r="P2" t="n">
         <v>1011.026904601763</v>
@@ -4372,10 +4372,10 @@
         <v>1054.855520006025</v>
       </c>
       <c r="X2" t="n">
-        <v>788.4778634388466</v>
+        <v>788.4778634388467</v>
       </c>
       <c r="Y2" t="n">
-        <v>522.1002068716687</v>
+        <v>788.4778634388467</v>
       </c>
     </row>
     <row r="3">
@@ -4385,46 +4385,46 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>657.5656780782545</v>
+        <v>628.4157937665466</v>
       </c>
       <c r="C3" t="n">
-        <v>657.5656780782545</v>
+        <v>453.9627644854196</v>
       </c>
       <c r="D3" t="n">
-        <v>508.6312684170032</v>
+        <v>305.0283548241683</v>
       </c>
       <c r="E3" t="n">
-        <v>349.3938134115477</v>
+        <v>305.0283548241683</v>
       </c>
       <c r="F3" t="n">
-        <v>202.8592554384327</v>
+        <v>158.4937968510533</v>
       </c>
       <c r="G3" t="n">
-        <v>65.46256898749988</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="H3" t="n">
-        <v>65.46256898749988</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="I3" t="n">
-        <v>21.09711040012049</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="J3" t="n">
-        <v>21.09711040012049</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="K3" t="n">
-        <v>192.1295835699343</v>
+        <v>192.1295835699344</v>
       </c>
       <c r="L3" t="n">
-        <v>338.874007230231</v>
+        <v>338.8740072302311</v>
       </c>
       <c r="M3" t="n">
-        <v>529.4746963267547</v>
+        <v>529.474696326755</v>
       </c>
       <c r="N3" t="n">
-        <v>739.5286634293598</v>
+        <v>739.52866342936</v>
       </c>
       <c r="O3" t="n">
-        <v>909.4672107560896</v>
+        <v>909.4672107560898</v>
       </c>
       <c r="P3" t="n">
         <v>1026.524810789493</v>
@@ -4436,25 +4436,25 @@
         <v>1036.519636212815</v>
       </c>
       <c r="S3" t="n">
-        <v>1036.519636212815</v>
+        <v>887.8833378166546</v>
       </c>
       <c r="T3" t="n">
-        <v>1036.519636212815</v>
+        <v>887.8833378166546</v>
       </c>
       <c r="U3" t="n">
-        <v>1036.519636212815</v>
+        <v>887.8833378166546</v>
       </c>
       <c r="V3" t="n">
-        <v>1036.519636212815</v>
+        <v>887.8833378166546</v>
       </c>
       <c r="W3" t="n">
-        <v>825.7810150983225</v>
+        <v>887.8833378166546</v>
       </c>
       <c r="X3" t="n">
-        <v>825.7810150983225</v>
+        <v>887.8833378166546</v>
       </c>
       <c r="Y3" t="n">
-        <v>825.7810150983225</v>
+        <v>796.6311307866147</v>
       </c>
     </row>
     <row r="4">
@@ -4464,40 +4464,40 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>719.2759572512189</v>
+        <v>803.5223344656631</v>
       </c>
       <c r="C4" t="n">
-        <v>550.339774323312</v>
+        <v>634.5861515377562</v>
       </c>
       <c r="D4" t="n">
-        <v>400.2231349109762</v>
+        <v>484.4695121254205</v>
       </c>
       <c r="E4" t="n">
-        <v>400.2231349109762</v>
+        <v>336.5564185430274</v>
       </c>
       <c r="F4" t="n">
-        <v>253.3331874130659</v>
+        <v>189.666471045117</v>
       </c>
       <c r="G4" t="n">
-        <v>253.3331874130659</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="H4" t="n">
-        <v>144.4815281019473</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="I4" t="n">
-        <v>21.09711040012049</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="J4" t="n">
-        <v>21.09711040012049</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="K4" t="n">
         <v>126.4133765287947</v>
       </c>
       <c r="L4" t="n">
-        <v>316.7083726551009</v>
+        <v>316.708372655101</v>
       </c>
       <c r="M4" t="n">
-        <v>527.7368878375337</v>
+        <v>527.7368878375336</v>
       </c>
       <c r="N4" t="n">
         <v>739.1822330227046</v>
@@ -4512,28 +4512,28 @@
         <v>1054.855520006025</v>
       </c>
       <c r="R4" t="n">
-        <v>926.0629918407075</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="S4" t="n">
-        <v>719.2759572512189</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="T4" t="n">
-        <v>719.2759572512189</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="U4" t="n">
-        <v>719.2759572512189</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="V4" t="n">
-        <v>719.2759572512189</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="W4" t="n">
-        <v>719.2759572512189</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="X4" t="n">
-        <v>719.2759572512189</v>
+        <v>985.1707992959028</v>
       </c>
       <c r="Y4" t="n">
-        <v>719.2759572512189</v>
+        <v>985.1707992959028</v>
       </c>
     </row>
     <row r="5">
@@ -4543,28 +4543,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>690.233069932778</v>
+        <v>670.32375641013</v>
       </c>
       <c r="C5" t="n">
-        <v>690.233069932778</v>
+        <v>670.32375641013</v>
       </c>
       <c r="D5" t="n">
-        <v>690.233069932778</v>
+        <v>670.32375641013</v>
       </c>
       <c r="E5" t="n">
-        <v>423.8554133656</v>
+        <v>670.32375641013</v>
       </c>
       <c r="F5" t="n">
-        <v>416.9099126163966</v>
+        <v>403.9460998429521</v>
       </c>
       <c r="G5" t="n">
-        <v>403.9460998429521</v>
+        <v>137.5684432757741</v>
       </c>
       <c r="H5" t="n">
         <v>137.5684432757741</v>
       </c>
       <c r="I5" t="n">
-        <v>21.09711040012049</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="J5" t="n">
         <v>49.28269087917556</v>
@@ -4573,16 +4573,16 @@
         <v>142.264087905254</v>
       </c>
       <c r="L5" t="n">
-        <v>294.5174947515903</v>
+        <v>294.5174947515906</v>
       </c>
       <c r="M5" t="n">
-        <v>495.5981834030603</v>
+        <v>495.5981834030605</v>
       </c>
       <c r="N5" t="n">
-        <v>704.5463761991315</v>
+        <v>704.5463761991317</v>
       </c>
       <c r="O5" t="n">
-        <v>888.5149683358411</v>
+        <v>888.5149683358416</v>
       </c>
       <c r="P5" t="n">
         <v>1011.026904601763</v>
@@ -4594,25 +4594,25 @@
         <v>1054.855520006025</v>
       </c>
       <c r="S5" t="n">
-        <v>956.6107264999559</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="T5" t="n">
-        <v>956.6107264999559</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="U5" t="n">
-        <v>956.6107264999559</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="V5" t="n">
-        <v>956.6107264999559</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="W5" t="n">
-        <v>956.6107264999559</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="X5" t="n">
-        <v>956.6107264999559</v>
+        <v>936.7014129773081</v>
       </c>
       <c r="Y5" t="n">
-        <v>690.233069932778</v>
+        <v>670.32375641013</v>
       </c>
     </row>
     <row r="6">
@@ -4622,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>536.5497397250151</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="C6" t="n">
-        <v>362.0967104438881</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="D6" t="n">
-        <v>362.0967104438881</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="E6" t="n">
-        <v>202.8592554384327</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="F6" t="n">
-        <v>202.8592554384327</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="G6" t="n">
-        <v>65.46256898749988</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="H6" t="n">
-        <v>65.46256898749988</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="I6" t="n">
-        <v>21.09711040012049</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="J6" t="n">
-        <v>21.09711040012049</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="K6" t="n">
-        <v>95.78113116957465</v>
+        <v>95.78113116957469</v>
       </c>
       <c r="L6" t="n">
-        <v>242.5255548298713</v>
+        <v>242.5255548298714</v>
       </c>
       <c r="M6" t="n">
-        <v>433.1262439263951</v>
+        <v>433.1262439263952</v>
       </c>
       <c r="N6" t="n">
-        <v>648.3904695545984</v>
+        <v>643.1802110290002</v>
       </c>
       <c r="O6" t="n">
-        <v>909.4672107560896</v>
+        <v>813.1187583557301</v>
       </c>
       <c r="P6" t="n">
-        <v>1026.524810789493</v>
+        <v>930.1763583891336</v>
       </c>
       <c r="Q6" t="n">
         <v>1054.855520006025</v>
       </c>
       <c r="R6" t="n">
-        <v>1036.519636212815</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="S6" t="n">
-        <v>901.5741551136456</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="T6" t="n">
-        <v>704.7650767450832</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="U6" t="n">
-        <v>704.7650767450832</v>
+        <v>826.7196740428383</v>
       </c>
       <c r="V6" t="n">
-        <v>704.7650767450832</v>
+        <v>591.5675658110956</v>
       </c>
       <c r="W6" t="n">
-        <v>704.7650767450832</v>
+        <v>337.330209082894</v>
       </c>
       <c r="X6" t="n">
-        <v>704.7650767450832</v>
+        <v>129.4787088773612</v>
       </c>
       <c r="Y6" t="n">
-        <v>704.7650767450832</v>
+        <v>21.0971104001205</v>
       </c>
     </row>
     <row r="7">
@@ -4701,31 +4701,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>184.2346475167379</v>
+        <v>355.3743762745875</v>
       </c>
       <c r="C7" t="n">
-        <v>184.2346475167379</v>
+        <v>186.4381933466805</v>
       </c>
       <c r="D7" t="n">
-        <v>184.2346475167379</v>
+        <v>36.32155393434482</v>
       </c>
       <c r="E7" t="n">
-        <v>36.32155393434483</v>
+        <v>36.32155393434482</v>
       </c>
       <c r="F7" t="n">
-        <v>36.32155393434483</v>
+        <v>36.32155393434482</v>
       </c>
       <c r="G7" t="n">
-        <v>36.32155393434483</v>
+        <v>36.32155393434482</v>
       </c>
       <c r="H7" t="n">
-        <v>36.32155393434483</v>
+        <v>36.32155393434482</v>
       </c>
       <c r="I7" t="n">
-        <v>36.32155393434483</v>
+        <v>36.32155393434482</v>
       </c>
       <c r="J7" t="n">
-        <v>21.09711040012049</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="K7" t="n">
         <v>126.4133765287947</v>
@@ -4734,13 +4734,13 @@
         <v>316.7083726551009</v>
       </c>
       <c r="M7" t="n">
-        <v>527.7368878375336</v>
+        <v>527.7368878375337</v>
       </c>
       <c r="N7" t="n">
-        <v>739.1822330227046</v>
+        <v>739.1822330227047</v>
       </c>
       <c r="O7" t="n">
-        <v>918.4699372075543</v>
+        <v>918.4699372075544</v>
       </c>
       <c r="P7" t="n">
         <v>1048.360858816803</v>
@@ -4755,22 +4755,22 @@
         <v>1054.855520006025</v>
       </c>
       <c r="T7" t="n">
-        <v>829.3864837640391</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="U7" t="n">
-        <v>593.872663244995</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="V7" t="n">
-        <v>593.872663244995</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="W7" t="n">
-        <v>593.872663244995</v>
+        <v>985.8049711463747</v>
       </c>
       <c r="X7" t="n">
-        <v>365.8831123469777</v>
+        <v>757.8154202483573</v>
       </c>
       <c r="Y7" t="n">
-        <v>365.8831123469777</v>
+        <v>537.0228411048272</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1617.332751740275</v>
+        <v>1236.169080611547</v>
       </c>
       <c r="C8" t="n">
-        <v>1248.370234799863</v>
+        <v>1236.169080611547</v>
       </c>
       <c r="D8" t="n">
-        <v>1248.370234799863</v>
+        <v>877.9033820047962</v>
       </c>
       <c r="E8" t="n">
-        <v>1248.370234799863</v>
+        <v>877.9033820047962</v>
       </c>
       <c r="F8" t="n">
-        <v>837.3843300102556</v>
+        <v>466.9174772151886</v>
       </c>
       <c r="G8" t="n">
-        <v>421.6795797345444</v>
+        <v>51.21125520685577</v>
       </c>
       <c r="H8" t="n">
-        <v>117.6204357321147</v>
+        <v>51.21125520685577</v>
       </c>
       <c r="I8" t="n">
-        <v>51.24678656800313</v>
+        <v>51.21125520685577</v>
       </c>
       <c r="J8" t="n">
-        <v>187.5281822362819</v>
+        <v>187.3702251467176</v>
       </c>
       <c r="K8" t="n">
-        <v>442.5171852816084</v>
+        <v>442.1757437607433</v>
       </c>
       <c r="L8" t="n">
-        <v>795.755353087292</v>
+        <v>795.1862829045947</v>
       </c>
       <c r="M8" t="n">
-        <v>1220.470313923562</v>
+        <v>1219.64796299523</v>
       </c>
       <c r="N8" t="n">
-        <v>1656.671415230818</v>
+        <v>1655.591685209588</v>
       </c>
       <c r="O8" t="n">
-        <v>2055.228484740841</v>
+        <v>2053.905718940599</v>
       </c>
       <c r="P8" t="n">
-        <v>2360.886721764998</v>
+        <v>2359.356530550202</v>
       </c>
       <c r="Q8" t="n">
-        <v>2542.250581723851</v>
+        <v>2540.564622661169</v>
       </c>
       <c r="R8" t="n">
-        <v>2562.339328400156</v>
+        <v>2560.562760342789</v>
       </c>
       <c r="S8" t="n">
-        <v>2437.640120926627</v>
+        <v>2435.830015762142</v>
       </c>
       <c r="T8" t="n">
-        <v>2437.640120926627</v>
+        <v>2293.466381486311</v>
       </c>
       <c r="U8" t="n">
-        <v>2437.640120926627</v>
+        <v>2293.466381486311</v>
       </c>
       <c r="V8" t="n">
-        <v>2106.577233583056</v>
+        <v>1962.403494142741</v>
       </c>
       <c r="W8" t="n">
-        <v>1753.808578312942</v>
+        <v>1609.634838872626</v>
       </c>
       <c r="X8" t="n">
-        <v>1753.808578312942</v>
+        <v>1236.169080611547</v>
       </c>
       <c r="Y8" t="n">
-        <v>1617.332751740275</v>
+        <v>1236.169080611547</v>
       </c>
     </row>
     <row r="9">
@@ -4859,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>931.3041410966384</v>
+        <v>929.5097208010836</v>
       </c>
       <c r="C9" t="n">
-        <v>756.8511118155114</v>
+        <v>755.0566915199566</v>
       </c>
       <c r="D9" t="n">
-        <v>607.9167021542603</v>
+        <v>606.1222818587054</v>
       </c>
       <c r="E9" t="n">
-        <v>448.6792471488047</v>
+        <v>446.8848268532499</v>
       </c>
       <c r="F9" t="n">
-        <v>302.1446891756898</v>
+        <v>300.3502688801349</v>
       </c>
       <c r="G9" t="n">
-        <v>165.443278618252</v>
+        <v>165.4424639718026</v>
       </c>
       <c r="H9" t="n">
-        <v>71.67401812057901</v>
+        <v>71.66559839993889</v>
       </c>
       <c r="I9" t="n">
-        <v>51.24678656800313</v>
+        <v>51.21125520685577</v>
       </c>
       <c r="J9" t="n">
-        <v>113.5972052500114</v>
+        <v>113.4887579637191</v>
       </c>
       <c r="K9" t="n">
-        <v>298.3188265310615</v>
+        <v>298.0857543148188</v>
       </c>
       <c r="L9" t="n">
-        <v>593.0223835625333</v>
+        <v>592.6217377483008</v>
       </c>
       <c r="M9" t="n">
-        <v>956.2844025217535</v>
+        <v>1208.393778287031</v>
       </c>
       <c r="N9" t="n">
-        <v>1343.569531118699</v>
+        <v>1842.133061471871</v>
       </c>
       <c r="O9" t="n">
-        <v>1860.224488783103</v>
+        <v>2174.019871459261</v>
       </c>
       <c r="P9" t="n">
-        <v>2422.685363568937</v>
+        <v>2421.055229888886</v>
       </c>
       <c r="Q9" t="n">
-        <v>2538.001278676483</v>
+        <v>2536.272628442631</v>
       </c>
       <c r="R9" t="n">
-        <v>2562.339328400156</v>
+        <v>2560.562760342789</v>
       </c>
       <c r="S9" t="n">
-        <v>2426.617474780097</v>
+        <v>2424.826280251704</v>
       </c>
       <c r="T9" t="n">
-        <v>2232.610846175227</v>
+        <v>2230.816477685353</v>
       </c>
       <c r="U9" t="n">
-        <v>2004.520742047138</v>
+        <v>2002.726321751583</v>
       </c>
       <c r="V9" t="n">
-        <v>1769.368633815395</v>
+        <v>1767.57421351984</v>
       </c>
       <c r="W9" t="n">
-        <v>1515.131277087193</v>
+        <v>1513.336856791638</v>
       </c>
       <c r="X9" t="n">
-        <v>1307.27977688166</v>
+        <v>1305.485356586106</v>
       </c>
       <c r="Y9" t="n">
-        <v>1099.519478116707</v>
+        <v>1097.725057821152</v>
       </c>
     </row>
     <row r="10">
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>342.4631083446101</v>
+        <v>461.2368923627303</v>
       </c>
       <c r="C10" t="n">
-        <v>342.4631083446101</v>
+        <v>292.3007094348234</v>
       </c>
       <c r="D10" t="n">
-        <v>342.4631083446101</v>
+        <v>142.1840700224876</v>
       </c>
       <c r="E10" t="n">
-        <v>342.4631083446101</v>
+        <v>51.21125520685577</v>
       </c>
       <c r="F10" t="n">
-        <v>342.4631083446101</v>
+        <v>51.21125520685577</v>
       </c>
       <c r="G10" t="n">
-        <v>305.8408313751036</v>
+        <v>51.21125520685577</v>
       </c>
       <c r="H10" t="n">
-        <v>157.1019332386098</v>
+        <v>51.21125520685577</v>
       </c>
       <c r="I10" t="n">
-        <v>51.24678656800313</v>
+        <v>51.21125520685577</v>
       </c>
       <c r="J10" t="n">
-        <v>76.71595955312203</v>
+        <v>76.63468308380176</v>
       </c>
       <c r="K10" t="n">
-        <v>248.4064713020476</v>
+        <v>248.2500215676573</v>
       </c>
       <c r="L10" t="n">
-        <v>523.6376499693235</v>
+        <v>523.3850043368928</v>
       </c>
       <c r="M10" t="n">
-        <v>824.219460709659</v>
+        <v>823.8653899904048</v>
       </c>
       <c r="N10" t="n">
-        <v>1123.088724245823</v>
+        <v>1122.635640101614</v>
       </c>
       <c r="O10" t="n">
-        <v>1383.126566999035</v>
+        <v>1382.582027931093</v>
       </c>
       <c r="P10" t="n">
-        <v>1582.113182171024</v>
+        <v>1581.490387616502</v>
       </c>
       <c r="Q10" t="n">
-        <v>1636.446120074498</v>
+        <v>1635.769145477365</v>
       </c>
       <c r="R10" t="n">
-        <v>1533.86271359008</v>
+        <v>1635.769145477365</v>
       </c>
       <c r="S10" t="n">
-        <v>1337.233965749941</v>
+        <v>1635.769145477365</v>
       </c>
       <c r="T10" t="n">
-        <v>1114.255484944676</v>
+        <v>1635.769145477365</v>
       </c>
       <c r="U10" t="n">
-        <v>825.1371474485143</v>
+        <v>1635.769145477365</v>
       </c>
       <c r="V10" t="n">
-        <v>570.4526592426274</v>
+        <v>1381.084657271478</v>
       </c>
       <c r="W10" t="n">
-        <v>570.4526592426274</v>
+        <v>1091.667487234517</v>
       </c>
       <c r="X10" t="n">
-        <v>342.4631083446101</v>
+        <v>863.6779363365001</v>
       </c>
       <c r="Y10" t="n">
-        <v>342.4631083446101</v>
+        <v>642.88535719297</v>
       </c>
     </row>
     <row r="11">
@@ -5017,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2315.152497609966</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C11" t="n">
-        <v>1946.189980669555</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
-        <v>1587.924282062804</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E11" t="n">
-        <v>1202.13602946456</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>791.1501246749524</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
-        <v>377.2052974758061</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.76531551814362</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.21173263691963</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J11" t="n">
-        <v>377.8919112275237</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K11" t="n">
-        <v>852.2947399039285</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L11" t="n">
-        <v>1477.735160302608</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2205.32757490768</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N11" t="n">
-        <v>2949.307003834344</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O11" t="n">
-        <v>3638.490420549528</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
-        <v>4192.191521035109</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
-        <v>4559.825241454979</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R11" t="n">
-        <v>4688.265775907181</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4603.670815540872</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T11" t="n">
-        <v>4402.62923741436</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U11" t="n">
-        <v>4149.188970524665</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3818.126083181094</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W11" t="n">
-        <v>3465.35742791098</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X11" t="n">
-        <v>3091.8916696499</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y11" t="n">
-        <v>2701.752337674088</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="12">
@@ -5096,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>943.3595186577119</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C12" t="n">
-        <v>768.9064893765849</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D12" t="n">
-        <v>619.9720797153336</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7346247098782</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F12" t="n">
-        <v>314.2000667367632</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G12" t="n">
-        <v>178.440298040527</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.76531551814362</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>93.76531551814362</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J12" t="n">
-        <v>243.3098463766216</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K12" t="n">
-        <v>243.3098463766216</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L12" t="n">
-        <v>243.3098463766216</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M12" t="n">
-        <v>717.5367845711665</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N12" t="n">
-        <v>1344.853650689698</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O12" t="n">
-        <v>1896.506231691817</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P12" t="n">
-        <v>2319.922996253381</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q12" t="n">
-        <v>2553.046693765828</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R12" t="n">
-        <v>2553.046693765828</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S12" t="n">
-        <v>2434.815424716773</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T12" t="n">
-        <v>2244.604273613852</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U12" t="n">
-        <v>2016.576119608211</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V12" t="n">
-        <v>1781.424011376468</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W12" t="n">
-        <v>1527.186654648267</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X12" t="n">
-        <v>1319.335154442734</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y12" t="n">
-        <v>1111.57485567778</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="13">
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1098.652759194249</v>
+        <v>1016.58045691144</v>
       </c>
       <c r="C13" t="n">
-        <v>929.7165762663418</v>
+        <v>847.6442739835331</v>
       </c>
       <c r="D13" t="n">
-        <v>779.599936854006</v>
+        <v>697.5276345711974</v>
       </c>
       <c r="E13" t="n">
-        <v>631.6868432716129</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="F13" t="n">
-        <v>484.7968957737025</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G13" t="n">
-        <v>317.5998719866124</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H13" t="n">
-        <v>175.8798211658399</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I13" t="n">
-        <v>93.76531551814362</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
-        <v>173.9372723687382</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.5212620398419</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L13" t="n">
-        <v>825.7851432062807</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M13" t="n">
-        <v>1247.652809956954</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1664.924022934748</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O13" t="n">
-        <v>2034.325229908149</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P13" t="n">
-        <v>2326.891096275495</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.013457116464</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2378.926184398465</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S13" t="n">
-        <v>2196.0552385054</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T13" t="n">
-        <v>2196.0552385054</v>
+        <v>2227.361618603201</v>
       </c>
       <c r="U13" t="n">
-        <v>2196.0552385054</v>
+        <v>1938.286391947399</v>
       </c>
       <c r="V13" t="n">
-        <v>2018.500524102996</v>
+        <v>1936.428221820188</v>
       </c>
       <c r="W13" t="n">
-        <v>1729.083354066036</v>
+        <v>1647.011051783227</v>
       </c>
       <c r="X13" t="n">
-        <v>1501.093803168018</v>
+        <v>1419.02150088521</v>
       </c>
       <c r="Y13" t="n">
-        <v>1280.301224024488</v>
+        <v>1198.22892174168</v>
       </c>
     </row>
     <row r="14">
@@ -5260,37 +5260,37 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H14" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O14" t="n">
         <v>3640.42229106801</v>
@@ -5314,13 +5314,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5354,28 +5354,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J15" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K15" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L15" t="n">
-        <v>243.4633055756266</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M15" t="n">
-        <v>840.8417932021785</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N15" t="n">
-        <v>1468.439756756785</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O15" t="n">
-        <v>2020.349486996072</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P15" t="n">
-        <v>2443.97263649114</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q15" t="n">
         <v>2553.061288060775</v>
@@ -5412,25 +5412,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>631.7012443408906</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C16" t="n">
-        <v>631.7012443408906</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D16" t="n">
-        <v>631.7012443408906</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="E16" t="n">
-        <v>631.7012443408906</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F16" t="n">
-        <v>484.8112968429803</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I16" t="n">
         <v>93.81666304797187</v>
@@ -5497,13 +5497,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G17" t="n">
         <v>379.8308874362686</v>
@@ -5512,13 +5512,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
@@ -5557,7 +5557,7 @@
         <v>3467.980956852888</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5591,25 +5591,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J18" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K18" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L18" t="n">
-        <v>738.7889117913853</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M18" t="n">
-        <v>949.9304447718133</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N18" t="n">
-        <v>1577.52840832642</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O18" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P18" t="n">
         <v>2553.061288060775</v>
@@ -5649,25 +5649,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>513.8536007400712</v>
+        <v>695.5020655703109</v>
       </c>
       <c r="C19" t="n">
-        <v>344.9174178121643</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="D19" t="n">
-        <v>194.8007783998286</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="E19" t="n">
-        <v>194.8007783998286</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F19" t="n">
-        <v>194.8007783998286</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G19" t="n">
-        <v>194.8007783998286</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I19" t="n">
         <v>93.81666304797187</v>
@@ -5740,10 +5740,10 @@
         <v>1204.759558406468</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H20" t="n">
         <v>93.81666304797187</v>
@@ -5755,16 +5755,16 @@
         <v>378.1925803111712</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O20" t="n">
         <v>3640.42229106801</v>
@@ -5828,25 +5828,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J21" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K21" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L21" t="n">
-        <v>352.5519571452614</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M21" t="n">
-        <v>949.9304447718133</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N21" t="n">
-        <v>1577.52840832642</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O21" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P21" t="n">
         <v>2553.061288060775</v>
@@ -5886,16 +5886,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1098.667160263527</v>
+        <v>1092.345997432834</v>
       </c>
       <c r="C22" t="n">
-        <v>929.7309773356195</v>
+        <v>923.4098145049275</v>
       </c>
       <c r="D22" t="n">
-        <v>779.6143379232838</v>
+        <v>773.2931750925917</v>
       </c>
       <c r="E22" t="n">
-        <v>631.7012443408906</v>
+        <v>625.3800815101986</v>
       </c>
       <c r="F22" t="n">
         <v>484.8112968429803</v>
@@ -5943,19 +5943,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>1688.385853854706</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="V22" t="n">
-        <v>1433.701365648819</v>
+        <v>1722.776592304621</v>
       </c>
       <c r="W22" t="n">
-        <v>1144.284195611858</v>
+        <v>1722.776592304621</v>
       </c>
       <c r="X22" t="n">
-        <v>1144.284195611858</v>
+        <v>1494.787041406604</v>
       </c>
       <c r="Y22" t="n">
-        <v>1144.284195611858</v>
+        <v>1273.994462263074</v>
       </c>
     </row>
     <row r="23">
@@ -5986,13 +5986,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J23" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
@@ -6025,7 +6025,7 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W23" t="n">
         <v>3467.980956852889</v>
@@ -6065,25 +6065,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J24" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L24" t="n">
-        <v>352.5519571452614</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>949.9304447718133</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N24" t="n">
-        <v>1577.52840832642</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O24" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
         <v>2553.061288060775</v>
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>2757.723669558405</v>
+        <v>580.0655846733346</v>
       </c>
       <c r="C25" t="n">
-        <v>2757.723669558405</v>
+        <v>411.1294017454277</v>
       </c>
       <c r="D25" t="n">
-        <v>2733.859482001421</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="E25" t="n">
-        <v>2733.859482001421</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F25" t="n">
-        <v>2586.969534503511</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G25" t="n">
-        <v>2419.773435218391</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H25" t="n">
-        <v>2419.773435218391</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I25" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L25" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M25" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O25" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P25" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>4623.787448650995</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>4440.9326143059</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>4221.331149328841</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>3932.255922673039</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>3677.571434467152</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>3388.154264430192</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>3160.164713532175</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y25" t="n">
-        <v>2939.372134388645</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="26">
@@ -6262,13 +6262,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y26" t="n">
         <v>2704.375866615997</v>
@@ -6314,19 +6314,19 @@
         <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>1307.627092998424</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N27" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O27" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6360,16 +6360,16 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1098.667160263527</v>
+        <v>653.7474797708871</v>
       </c>
       <c r="C28" t="n">
-        <v>929.7309773356195</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="D28" t="n">
-        <v>779.6143379232838</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E28" t="n">
-        <v>631.7012443408906</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F28" t="n">
         <v>484.8112968429803</v>
@@ -6414,22 +6414,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>2197.062545487567</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>1907.987318831765</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>1653.302830625878</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>1653.302830625878</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X28" t="n">
-        <v>1501.108204237296</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y28" t="n">
-        <v>1280.315625093766</v>
+        <v>835.3959446011269</v>
       </c>
     </row>
     <row r="29">
@@ -6445,37 +6445,37 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
         <v>3640.42229106801</v>
@@ -6484,28 +6484,28 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R29" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
         <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y29" t="n">
         <v>2704.375866615997</v>
@@ -6536,28 +6536,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
-        <v>738.7889117913853</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>1336.167399417937</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>1963.765362972544</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O30" t="n">
-        <v>2515.675093211831</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
         <v>2553.061288060775</v>
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>3342.537229081862</v>
+        <v>1098.667160263527</v>
       </c>
       <c r="C31" t="n">
-        <v>3173.601046153955</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D31" t="n">
-        <v>3023.484406741619</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E31" t="n">
-        <v>2875.571313159226</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F31" t="n">
-        <v>2728.681365661316</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G31" t="n">
-        <v>2561.485266376192</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H31" t="n">
-        <v>2419.77343521839</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I31" t="n">
-        <v>2337.686731866303</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>2417.922750296627</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K31" t="n">
-        <v>2679.612012822166</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L31" t="n">
-        <v>3070.010606998106</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M31" t="n">
-        <v>3492.020309729141</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>3909.430181389149</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O31" t="n">
-        <v>4278.959462098134</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P31" t="n">
-        <v>4571.634917671693</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>4623.787448650995</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>4517.069482196496</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>4517.069482196496</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>4517.069482196496</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="V31" t="n">
-        <v>4262.384993990609</v>
+        <v>1729.097755135313</v>
       </c>
       <c r="W31" t="n">
-        <v>3972.967823953649</v>
+        <v>1729.097755135313</v>
       </c>
       <c r="X31" t="n">
-        <v>3744.978273055632</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="Y31" t="n">
-        <v>3524.185693912102</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="32">
@@ -6697,13 +6697,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
@@ -6776,25 +6776,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J33" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
-        <v>2129.438138565707</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O33" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
         <v>2553.061288060775</v>
@@ -6834,22 +6834,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>874.8686257536381</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C34" t="n">
-        <v>705.9324428257312</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D34" t="n">
-        <v>555.8158034133954</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E34" t="n">
-        <v>407.9027098310023</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F34" t="n">
-        <v>261.0127623330919</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G34" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H34" t="n">
         <v>93.81666304797187</v>
@@ -6882,28 +6882,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2446.96308358026</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S34" t="n">
-        <v>2446.96308358026</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T34" t="n">
-        <v>2338.476105524075</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U34" t="n">
-        <v>2049.400878868273</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V34" t="n">
-        <v>1794.716390662386</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W34" t="n">
-        <v>1505.299220625425</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X34" t="n">
-        <v>1277.309669727408</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y34" t="n">
-        <v>1056.517090583878</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="35">
@@ -6931,25 +6931,25 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
         <v>3640.42229106801</v>
@@ -6958,7 +6958,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R35" t="n">
         <v>4690.833152398593</v>
@@ -6973,13 +6973,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -7010,28 +7010,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J36" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L36" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N36" t="n">
-        <v>2129.438138565707</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O36" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
         <v>2553.061288060775</v>
@@ -7071,28 +7071,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1098.667160263526</v>
+        <v>1016.58045691144</v>
       </c>
       <c r="C37" t="n">
-        <v>929.7309773356194</v>
+        <v>847.6442739835331</v>
       </c>
       <c r="D37" t="n">
-        <v>779.6143379232836</v>
+        <v>697.5276345711974</v>
       </c>
       <c r="E37" t="n">
-        <v>631.7012443408905</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="F37" t="n">
-        <v>484.8112968429802</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G37" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H37" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
         <v>174.0526814782957</v>
@@ -7119,28 +7119,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S37" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T37" t="n">
-        <v>2379.917379832663</v>
+        <v>2227.361618603201</v>
       </c>
       <c r="U37" t="n">
-        <v>2090.842153176861</v>
+        <v>2191.112710026075</v>
       </c>
       <c r="V37" t="n">
-        <v>1836.157664970974</v>
+        <v>1936.428221820188</v>
       </c>
       <c r="W37" t="n">
-        <v>1729.097755135316</v>
+        <v>1647.011051783227</v>
       </c>
       <c r="X37" t="n">
-        <v>1501.108204237299</v>
+        <v>1419.02150088521</v>
       </c>
       <c r="Y37" t="n">
-        <v>1280.315625093766</v>
+        <v>1198.22892174168</v>
       </c>
     </row>
     <row r="38">
@@ -7171,16 +7171,16 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075817</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M38" t="n">
         <v>2206.558663014779</v>
@@ -7192,7 +7192,7 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q38" t="n">
         <v>4562.265728852255</v>
@@ -7210,13 +7210,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7250,28 +7250,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
-        <v>243.4633055756266</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>716.6687843969308</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N39" t="n">
-        <v>1344.266747951538</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O39" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
         <v>2553.061288060775</v>
@@ -7308,25 +7308,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>763.7541388327643</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C40" t="n">
-        <v>594.8179559048574</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D40" t="n">
-        <v>444.7013164925216</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E40" t="n">
-        <v>296.7882229101285</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F40" t="n">
-        <v>149.8982754122182</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G40" t="n">
-        <v>149.8982754122182</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H40" t="n">
-        <v>149.8982754122182</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797187</v>
@@ -7356,28 +7356,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>2227.361618603201</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>1938.286391947399</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V40" t="n">
-        <v>1683.601903741512</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W40" t="n">
-        <v>1394.184733704551</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X40" t="n">
-        <v>1166.195182806534</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y40" t="n">
-        <v>945.402603663004</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="41">
@@ -7399,31 +7399,31 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G41" t="n">
         <v>379.8308874362683</v>
       </c>
       <c r="H41" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111717</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
         <v>3640.42229106801</v>
@@ -7487,25 +7487,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
-        <v>577.3880777468471</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>949.9304447718133</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
-        <v>1577.52840832642</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O42" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
         <v>2553.061288060775</v>
@@ -7545,25 +7545,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>800.5007694647277</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C43" t="n">
-        <v>631.5645865368208</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D43" t="n">
-        <v>481.447947124485</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E43" t="n">
-        <v>333.5348535420919</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F43" t="n">
-        <v>186.6449060441816</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G43" t="n">
-        <v>175.9033664000583</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H43" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
@@ -7593,28 +7593,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>2264.108249235165</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U43" t="n">
-        <v>1975.033022579363</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V43" t="n">
-        <v>1720.348534373476</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W43" t="n">
-        <v>1430.931364336515</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X43" t="n">
-        <v>1202.941813438498</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y43" t="n">
-        <v>982.1492342949674</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="44">
@@ -7624,43 +7624,43 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
         <v>379.8308874362683</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I44" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J44" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O44" t="n">
         <v>3640.42229106801</v>
@@ -7681,19 +7681,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y44" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="45">
@@ -7724,22 +7724,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O45" t="n">
         <v>2553.061288060775</v>
@@ -7782,22 +7782,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>707.672526468518</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C46" t="n">
-        <v>538.7363435406111</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D46" t="n">
-        <v>388.6197041282753</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E46" t="n">
-        <v>240.7066105458822</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F46" t="n">
-        <v>93.81666304797187</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G46" t="n">
-        <v>93.81666304797187</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H46" t="n">
         <v>93.81666304797187</v>
@@ -7830,28 +7830,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2390.881471216014</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>2171.280006238955</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>1882.204779583153</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V46" t="n">
-        <v>1627.520291377266</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W46" t="n">
-        <v>1338.103121340305</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X46" t="n">
-        <v>1110.113570442288</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y46" t="n">
-        <v>889.3209912987577</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
   </sheetData>
@@ -8002,7 +8002,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>60.51967546761153</v>
+        <v>60.51967546761151</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -8057,10 +8057,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>2.051220519418266</v>
+        <v>2.051220519418237</v>
       </c>
       <c r="K3" t="n">
-        <v>97.32166909127238</v>
+        <v>97.32166909127241</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -8239,7 +8239,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>60.51967546761153</v>
+        <v>60.51967546761151</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8294,7 +8294,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>2.051220519418266</v>
+        <v>2.051220519418237</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -8306,16 +8306,16 @@
         <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>5.262887399594291</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>92.05878169167806</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>97.32166909127245</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8540,16 +8540,16 @@
         <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>255.2581536004322</v>
       </c>
       <c r="N9" t="n">
-        <v>0</v>
+        <v>249.1463441538083</v>
       </c>
       <c r="O9" t="n">
-        <v>186.4490126143858</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
         <v>0</v>
@@ -23275,7 +23275,7 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>2.569396338528463</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23436,7 +23436,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,19 +23463,19 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4093609706218</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.1845243123506</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>76.35847606544874</v>
+        <v>250.2980548978887</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -23652,28 +23652,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>116.6691671648112</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>65.54986409393068</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23889,28 +23889,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>28.95742156328149</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>121.5862749664513</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -24126,7 +24126,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>134.6711151870887</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -24138,7 +24138,7 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>6.257951202385101</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -24183,19 +24183,19 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24363,19 +24363,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>65.54986409393069</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>124.9899273367984</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -24384,7 +24384,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24606,13 +24606,13 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -24654,7 +24654,7 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24663,13 +24663,13 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>75.03697526434118</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>138.4949402405077</v>
       </c>
     </row>
     <row r="29">
@@ -24888,19 +24888,19 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>75.37549921169128</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>6.257951202385186</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -25080,19 +25080,19 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>81.26583631856553</v>
@@ -25122,13 +25122,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="S34" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>110.0033420516644</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -25332,7 +25332,7 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,22 +25359,22 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>250.2980548978887</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>180.5336875992901</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -25554,22 +25554,22 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I40" t="n">
-        <v>25.7450400779617</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,10 +25596,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25788,25 +25788,25 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>57.22910392194228</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>154.8900140445868</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,13 +25833,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -26028,19 +26028,19 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I46" t="n">
         <v>81.26583631856553</v>
@@ -26070,10 +26070,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>125.5054897610404</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>903090.2267611346</v>
+        <v>903081.0855124631</v>
       </c>
     </row>
     <row r="5">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>877806.315841837</v>
+        <v>878051.6420719661</v>
       </c>
     </row>
     <row r="6">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>878051.6420719661</v>
+        <v>878051.6420719662</v>
       </c>
     </row>
     <row r="9">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>878051.6420719662</v>
+        <v>878051.6420719661</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>878051.6420719661</v>
+        <v>878051.6420719662</v>
       </c>
     </row>
     <row r="12">
@@ -26313,43 +26313,43 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>554203.1946583912</v>
+        <v>554203.1946583914</v>
       </c>
       <c r="C2" t="n">
-        <v>554203.1946583909</v>
+        <v>554203.1946583913</v>
       </c>
       <c r="D2" t="n">
         <v>554203.1946583913</v>
       </c>
       <c r="E2" t="n">
-        <v>544669.9127392778</v>
+        <v>544823.9547907539</v>
       </c>
       <c r="F2" t="n">
-        <v>544823.9547907538</v>
+        <v>544823.954790754</v>
       </c>
       <c r="G2" t="n">
         <v>544823.9547907538</v>
       </c>
       <c r="H2" t="n">
-        <v>544823.9547907539</v>
+        <v>544823.954790754</v>
       </c>
       <c r="I2" t="n">
-        <v>544823.9547907539</v>
+        <v>544823.9547907537</v>
       </c>
       <c r="J2" t="n">
-        <v>544823.9547907539</v>
+        <v>544823.9547907538</v>
       </c>
       <c r="K2" t="n">
-        <v>544823.954790754</v>
+        <v>544823.9547907544</v>
       </c>
       <c r="L2" t="n">
         <v>544823.9547907541</v>
       </c>
       <c r="M2" t="n">
-        <v>544823.9547907542</v>
+        <v>544823.9547907541</v>
       </c>
       <c r="N2" t="n">
-        <v>544823.9547907539</v>
+        <v>544823.9547907538</v>
       </c>
       <c r="O2" t="n">
         <v>544823.9547907538</v>
@@ -26365,19 +26365,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>680087.9805911931</v>
+        <v>680087.9805911932</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>391128.3638059438</v>
+        <v>390680.0076580805</v>
       </c>
       <c r="E3" t="n">
-        <v>506886.0326267324</v>
+        <v>507909.2320606917</v>
       </c>
       <c r="F3" t="n">
-        <v>585.0966390503351</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26389,19 +26389,19 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>68999.15441911407</v>
+        <v>68999.15441911409</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>95382.64613756986</v>
+        <v>95270.23779101799</v>
       </c>
       <c r="M3" t="n">
-        <v>132447.3436061351</v>
+        <v>132717.9756954687</v>
       </c>
       <c r="N3" t="n">
-        <v>157.2049554780908</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -26423,10 +26423,10 @@
         <v>251227.3656190198</v>
       </c>
       <c r="D4" t="n">
-        <v>140338.6838374606</v>
+        <v>140465.2517501113</v>
       </c>
       <c r="E4" t="n">
-        <v>11166.69849988049</v>
+        <v>11167.03225179351</v>
       </c>
       <c r="F4" t="n">
         <v>11167.03225179351</v>
@@ -26450,7 +26450,7 @@
         <v>11167.03225179351</v>
       </c>
       <c r="M4" t="n">
-        <v>11167.03225179352</v>
+        <v>11167.03225179351</v>
       </c>
       <c r="N4" t="n">
         <v>11167.03225179351</v>
@@ -26469,16 +26469,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>63047.80320426619</v>
+        <v>63047.8032042662</v>
       </c>
       <c r="C5" t="n">
-        <v>63047.80320426619</v>
+        <v>63047.8032042662</v>
       </c>
       <c r="D5" t="n">
-        <v>92937.77243984473</v>
+        <v>92902.86757567909</v>
       </c>
       <c r="E5" t="n">
-        <v>101072.4410767591</v>
+        <v>101122.5298239071</v>
       </c>
       <c r="F5" t="n">
         <v>101122.5298239071</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-440159.9547560879</v>
+        <v>-440159.9547560877</v>
       </c>
       <c r="C6" t="n">
-        <v>239928.025835105</v>
+        <v>239928.0258351053</v>
       </c>
       <c r="D6" t="n">
-        <v>-70201.62542485783</v>
+        <v>-69844.93232547963</v>
       </c>
       <c r="E6" t="n">
-        <v>-74455.25946409412</v>
+        <v>-75722.21859999535</v>
       </c>
       <c r="F6" t="n">
-        <v>431949.2960760028</v>
+        <v>432187.0134606964</v>
       </c>
       <c r="G6" t="n">
-        <v>432534.3927150531</v>
+        <v>432187.0134606962</v>
       </c>
       <c r="H6" t="n">
-        <v>432534.3927150532</v>
+        <v>432187.0134606964</v>
       </c>
       <c r="I6" t="n">
-        <v>432534.3927150532</v>
+        <v>432187.013460696</v>
       </c>
       <c r="J6" t="n">
-        <v>363535.2382959392</v>
+        <v>363187.859041582</v>
       </c>
       <c r="K6" t="n">
-        <v>432534.3927150534</v>
+        <v>432187.0134606967</v>
       </c>
       <c r="L6" t="n">
-        <v>337151.7465774837</v>
+        <v>336916.7756696785</v>
       </c>
       <c r="M6" t="n">
-        <v>300087.0491089185</v>
+        <v>299469.0377652278</v>
       </c>
       <c r="N6" t="n">
-        <v>432377.1877595751</v>
+        <v>432187.0134606962</v>
       </c>
       <c r="O6" t="n">
-        <v>432534.3927150531</v>
+        <v>432187.0134606962</v>
       </c>
       <c r="P6" t="n">
-        <v>432534.3927150531</v>
+        <v>432187.0134606962</v>
       </c>
     </row>
   </sheetData>
@@ -26737,16 +26737,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>614.0550137694783</v>
+        <v>614.0550137694784</v>
       </c>
       <c r="C3" t="n">
-        <v>614.0550137694783</v>
+        <v>614.0550137694784</v>
       </c>
       <c r="D3" t="n">
-        <v>934.0648921175394</v>
+        <v>933.7024595627843</v>
       </c>
       <c r="E3" t="n">
-        <v>1367.467948760089</v>
+        <v>1367.975500341674</v>
       </c>
       <c r="F3" t="n">
         <v>1367.975500341674</v>
@@ -26789,16 +26789,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>263.7138800015061</v>
+        <v>263.7138800015062</v>
       </c>
       <c r="C4" t="n">
-        <v>263.7138800015061</v>
+        <v>263.7138800015062</v>
       </c>
       <c r="D4" t="n">
-        <v>640.5848321000391</v>
+        <v>640.1406900856972</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.066443976795</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="F4" t="n">
         <v>1172.708288099648</v>
@@ -26959,19 +26959,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>614.0550137694783</v>
+        <v>614.0550137694784</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>320.0098783480612</v>
+        <v>319.6474457933059</v>
       </c>
       <c r="E3" t="n">
-        <v>433.4030566425496</v>
+        <v>434.2730407788895</v>
       </c>
       <c r="F3" t="n">
-        <v>0.5075515815847211</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -27011,19 +27011,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>263.7138800015061</v>
+        <v>263.7138800015062</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>376.8709520985329</v>
+        <v>376.426810084191</v>
       </c>
       <c r="E4" t="n">
-        <v>531.4816118767561</v>
+        <v>532.5675980139512</v>
       </c>
       <c r="F4" t="n">
-        <v>0.641844122853075</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -27035,19 +27035,19 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>263.7138800015061</v>
+        <v>263.7138800015062</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>376.8709520985332</v>
+        <v>376.426810084191</v>
       </c>
       <c r="M4" t="n">
-        <v>531.4816118767559</v>
+        <v>532.5675980139512</v>
       </c>
       <c r="N4" t="n">
-        <v>0.6418441228533024</v>
+        <v>0</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27257,19 +27257,19 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>263.7138800015061</v>
+        <v>263.7138800015062</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>376.8709520985329</v>
+        <v>376.426810084191</v>
       </c>
       <c r="M4" t="n">
-        <v>531.4816118767561</v>
+        <v>532.5675980139512</v>
       </c>
       <c r="N4" t="n">
-        <v>0.641844122853075</v>
+        <v>0</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27378,28 +27378,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>119.0199616619744</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>101.5590117695014</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>244.586521403965</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>187.431034882095</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>149.1202946442038</v>
       </c>
       <c r="H2" t="n">
         <v>314.193632629268</v>
       </c>
       <c r="I2" t="n">
-        <v>115.3066195468971</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27444,10 +27444,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>106.0172206769629</v>
+        <v>106.0172206769628</v>
       </c>
       <c r="Y2" t="n">
-        <v>122.5240586545474</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27460,13 +27460,13 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27475,10 +27475,10 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>99.47932027120976</v>
+        <v>99.47932027120974</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>43.92180400150558</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27508,7 +27508,7 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>147.1499354121988</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
         <v>194.8409875848768</v>
@@ -27520,13 +27520,13 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>43.06374825757237</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
-        <v>205.6826957773044</v>
+        <v>115.3430108175648</v>
       </c>
     </row>
     <row r="4">
@@ -27536,7 +27536,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27545,22 +27545,22 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.8836670385466</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>44.61901661784941</v>
+        <v>152.3821593358568</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>122.1505735248085</v>
       </c>
       <c r="J4" t="n">
-        <v>15.07219909888209</v>
+        <v>15.07219909888208</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27584,10 +27584,10 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>127.5046028836639</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>204.7191642435938</v>
       </c>
       <c r="T4" t="n">
         <v>223.2143458795659</v>
@@ -27602,7 +27602,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>156.7217818860164</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -27624,16 +27624,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>118.2164900707556</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>143.1621657402052</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>149.1202946442038</v>
       </c>
       <c r="H5" t="n">
-        <v>50.47975262776185</v>
+        <v>314.193632629268</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27666,7 +27666,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>55.50534762821434</v>
+        <v>152.7676931992223</v>
       </c>
       <c r="T5" t="n">
         <v>212.2897156032232</v>
@@ -27681,7 +27681,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>252.7585347200395</v>
       </c>
       <c r="Y5" t="n">
         <v>122.5240586545474</v>
@@ -27694,28 +27694,28 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>136.0227195864234</v>
       </c>
       <c r="H6" t="n">
-        <v>99.47932027120976</v>
+        <v>99.47932027120974</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>43.92180400150558</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27742,28 +27742,28 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>18.15252495527767</v>
       </c>
       <c r="S6" t="n">
-        <v>13.55390912402135</v>
+        <v>147.1499354121988</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>194.8409875848768</v>
       </c>
       <c r="U6" t="n">
-        <v>225.8544875035546</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>205.6826957773044</v>
+        <v>98.38491328483612</v>
       </c>
     </row>
     <row r="7">
@@ -27776,13 +27776,13 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
@@ -27827,22 +27827,22 @@
         <v>204.7191642435938</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>223.2143458795659</v>
       </c>
       <c r="U7" t="n">
-        <v>53.09994818882384</v>
+        <v>286.2586305026775</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>218.1629549655374</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27855,10 +27855,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
@@ -27870,10 +27870,10 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>301.0334742203004</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>65.76608425465014</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27906,10 +27906,10 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>206.6581849802338</v>
+        <v>65.7245651316172</v>
       </c>
       <c r="U8" t="n">
-        <v>251.045250128462</v>
+        <v>251.0453666896856</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -27918,10 +27918,10 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>251.126870349113</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -27946,7 +27946,7 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>1.776449164524735</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -28010,28 +28010,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>56.37087597909363</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>130.0505458449927</v>
+        <v>166.3072536117062</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>147.2573199590395</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>104.8162497430994</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28058,28 +28058,28 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>101.5869591640952</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>194.6738502503844</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>220.7514885103387</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2271897703044</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -29568,7 +29568,7 @@
         <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>1.13686837721616e-12</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -29684,7 +29684,7 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>-1.487508428269215e-12</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -30036,7 +30036,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
         <v>0</v>
@@ -30212,7 +30212,7 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>-7.333857380491618e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -31041,31 +31041,31 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>2.468562869425036</v>
+        <v>2.468562869425037</v>
       </c>
       <c r="H2" t="n">
         <v>25.28116948649916</v>
       </c>
       <c r="I2" t="n">
-        <v>95.1692700235088</v>
+        <v>95.16927002350883</v>
       </c>
       <c r="J2" t="n">
         <v>209.5161878388634</v>
       </c>
       <c r="K2" t="n">
-        <v>314.0104541016252</v>
+        <v>314.0104541016253</v>
       </c>
       <c r="L2" t="n">
         <v>389.5577350167918</v>
       </c>
       <c r="M2" t="n">
-        <v>433.4580399459292</v>
+        <v>433.4580399459293</v>
       </c>
       <c r="N2" t="n">
-        <v>440.4718441986831</v>
+        <v>440.4718441986832</v>
       </c>
       <c r="O2" t="n">
-        <v>415.9250721658379</v>
+        <v>415.925072165838</v>
       </c>
       <c r="P2" t="n">
         <v>354.9824263269073</v>
@@ -31077,7 +31077,7 @@
         <v>155.0658623465206</v>
       </c>
       <c r="S2" t="n">
-        <v>56.25237638702307</v>
+        <v>56.25237638702308</v>
       </c>
       <c r="T2" t="n">
         <v>10.8061339609081</v>
@@ -31126,16 +31126,16 @@
         <v>12.75612396528671</v>
       </c>
       <c r="I3" t="n">
-        <v>45.47482884990948</v>
+        <v>45.47482884990949</v>
       </c>
       <c r="J3" t="n">
-        <v>124.7864061472484</v>
+        <v>124.7864061472485</v>
       </c>
       <c r="K3" t="n">
         <v>213.2798437919895</v>
       </c>
       <c r="L3" t="n">
-        <v>286.7810703458304</v>
+        <v>286.7810703458305</v>
       </c>
       <c r="M3" t="n">
         <v>334.6599825043656</v>
@@ -31144,25 +31144,25 @@
         <v>343.517436429399</v>
       </c>
       <c r="O3" t="n">
-        <v>314.2513427542725</v>
+        <v>314.2513427542726</v>
       </c>
       <c r="P3" t="n">
-        <v>252.2144074480712</v>
+        <v>252.2144074480713</v>
       </c>
       <c r="Q3" t="n">
         <v>168.5986520825179</v>
       </c>
       <c r="R3" t="n">
-        <v>82.00530919736545</v>
+        <v>82.00530919736546</v>
       </c>
       <c r="S3" t="n">
         <v>24.53323569163905</v>
       </c>
       <c r="T3" t="n">
-        <v>5.323741109944814</v>
+        <v>5.323741109944815</v>
       </c>
       <c r="U3" t="n">
-        <v>0.08689457742020923</v>
+        <v>0.08689457742020924</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31202,16 +31202,16 @@
         <v>1.107312319912174</v>
       </c>
       <c r="H4" t="n">
-        <v>9.845013171582789</v>
+        <v>9.84501317158279</v>
       </c>
       <c r="I4" t="n">
         <v>33.29990140244975</v>
       </c>
       <c r="J4" t="n">
-        <v>78.28698101779068</v>
+        <v>78.28698101779069</v>
       </c>
       <c r="K4" t="n">
-        <v>128.6495586225234</v>
+        <v>128.6495586225235</v>
       </c>
       <c r="L4" t="n">
         <v>164.6271425440336</v>
@@ -31223,25 +31223,25 @@
         <v>169.4489843734694</v>
       </c>
       <c r="O4" t="n">
-        <v>156.513563181768</v>
+        <v>156.5135631817681</v>
       </c>
       <c r="P4" t="n">
         <v>133.9243918555596</v>
       </c>
       <c r="Q4" t="n">
-        <v>92.72230707919121</v>
+        <v>92.72230707919122</v>
       </c>
       <c r="R4" t="n">
-        <v>49.78878849350555</v>
+        <v>49.78878849350556</v>
       </c>
       <c r="S4" t="n">
-        <v>19.29743379337851</v>
+        <v>19.29743379337852</v>
       </c>
       <c r="T4" t="n">
-        <v>4.731243548715651</v>
+        <v>4.731243548715652</v>
       </c>
       <c r="U4" t="n">
-        <v>0.06039885381339136</v>
+        <v>0.06039885381339138</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31278,31 +31278,31 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>2.468562869425036</v>
+        <v>2.468562869425037</v>
       </c>
       <c r="H5" t="n">
         <v>25.28116948649916</v>
       </c>
       <c r="I5" t="n">
-        <v>95.1692700235088</v>
+        <v>95.16927002350883</v>
       </c>
       <c r="J5" t="n">
         <v>209.5161878388634</v>
       </c>
       <c r="K5" t="n">
-        <v>314.0104541016252</v>
+        <v>314.0104541016253</v>
       </c>
       <c r="L5" t="n">
         <v>389.5577350167918</v>
       </c>
       <c r="M5" t="n">
-        <v>433.4580399459292</v>
+        <v>433.4580399459293</v>
       </c>
       <c r="N5" t="n">
-        <v>440.4718441986831</v>
+        <v>440.4718441986832</v>
       </c>
       <c r="O5" t="n">
-        <v>415.9250721658379</v>
+        <v>415.925072165838</v>
       </c>
       <c r="P5" t="n">
         <v>354.9824263269073</v>
@@ -31314,7 +31314,7 @@
         <v>155.0658623465206</v>
       </c>
       <c r="S5" t="n">
-        <v>56.25237638702307</v>
+        <v>56.25237638702308</v>
       </c>
       <c r="T5" t="n">
         <v>10.8061339609081</v>
@@ -31363,16 +31363,16 @@
         <v>12.75612396528671</v>
       </c>
       <c r="I6" t="n">
-        <v>45.47482884990948</v>
+        <v>45.47482884990949</v>
       </c>
       <c r="J6" t="n">
-        <v>124.7864061472484</v>
+        <v>124.7864061472485</v>
       </c>
       <c r="K6" t="n">
         <v>213.2798437919895</v>
       </c>
       <c r="L6" t="n">
-        <v>286.7810703458304</v>
+        <v>286.7810703458305</v>
       </c>
       <c r="M6" t="n">
         <v>334.6599825043656</v>
@@ -31381,25 +31381,25 @@
         <v>343.517436429399</v>
       </c>
       <c r="O6" t="n">
-        <v>314.2513427542725</v>
+        <v>314.2513427542726</v>
       </c>
       <c r="P6" t="n">
-        <v>252.2144074480712</v>
+        <v>252.2144074480713</v>
       </c>
       <c r="Q6" t="n">
         <v>168.5986520825179</v>
       </c>
       <c r="R6" t="n">
-        <v>82.00530919736545</v>
+        <v>82.00530919736546</v>
       </c>
       <c r="S6" t="n">
         <v>24.53323569163905</v>
       </c>
       <c r="T6" t="n">
-        <v>5.323741109944814</v>
+        <v>5.323741109944815</v>
       </c>
       <c r="U6" t="n">
-        <v>0.08689457742020923</v>
+        <v>0.08689457742020924</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31439,16 +31439,16 @@
         <v>1.107312319912174</v>
       </c>
       <c r="H7" t="n">
-        <v>9.845013171582789</v>
+        <v>9.84501317158279</v>
       </c>
       <c r="I7" t="n">
         <v>33.29990140244975</v>
       </c>
       <c r="J7" t="n">
-        <v>78.28698101779068</v>
+        <v>78.28698101779069</v>
       </c>
       <c r="K7" t="n">
-        <v>128.6495586225234</v>
+        <v>128.6495586225235</v>
       </c>
       <c r="L7" t="n">
         <v>164.6271425440336</v>
@@ -31460,25 +31460,25 @@
         <v>169.4489843734694</v>
       </c>
       <c r="O7" t="n">
-        <v>156.513563181768</v>
+        <v>156.5135631817681</v>
       </c>
       <c r="P7" t="n">
         <v>133.9243918555596</v>
       </c>
       <c r="Q7" t="n">
-        <v>92.72230707919121</v>
+        <v>92.72230707919122</v>
       </c>
       <c r="R7" t="n">
-        <v>49.78878849350555</v>
+        <v>49.78878849350556</v>
       </c>
       <c r="S7" t="n">
-        <v>19.29743379337851</v>
+        <v>19.29743379337852</v>
       </c>
       <c r="T7" t="n">
-        <v>4.731243548715651</v>
+        <v>4.731243548715652</v>
       </c>
       <c r="U7" t="n">
-        <v>0.06039885381339136</v>
+        <v>0.06039885381339138</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31515,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>3.75503474218106</v>
+        <v>3.753577726885562</v>
       </c>
       <c r="H8" t="n">
-        <v>38.45624955336179</v>
+        <v>38.44132789546677</v>
       </c>
       <c r="I8" t="n">
-        <v>144.7659768979355</v>
+        <v>144.7098053157558</v>
       </c>
       <c r="J8" t="n">
-        <v>318.70387994919</v>
+        <v>318.5802175972537</v>
       </c>
       <c r="K8" t="n">
-        <v>477.6545005857144</v>
+        <v>477.4691627763197</v>
       </c>
       <c r="L8" t="n">
-        <v>592.5726450767381</v>
+        <v>592.3427171354939</v>
       </c>
       <c r="M8" t="n">
-        <v>659.3512441730006</v>
+        <v>659.0954050359949</v>
       </c>
       <c r="N8" t="n">
-        <v>670.0202366342226</v>
+        <v>669.7602577525086</v>
       </c>
       <c r="O8" t="n">
-        <v>632.6811099166596</v>
+        <v>632.4356192307903</v>
       </c>
       <c r="P8" t="n">
-        <v>539.9786897190646</v>
+        <v>539.7691690983029</v>
       </c>
       <c r="Q8" t="n">
-        <v>405.5015080147052</v>
+        <v>405.3441667542135</v>
       </c>
       <c r="R8" t="n">
-        <v>235.8772011235312</v>
+        <v>235.7856768864754</v>
       </c>
       <c r="S8" t="n">
-        <v>85.56785418745099</v>
+        <v>85.53465245140484</v>
       </c>
       <c r="T8" t="n">
-        <v>16.4376645838976</v>
+        <v>16.43128649944155</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3004027793744848</v>
+        <v>0.3002862181508449</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>2.009120711347161</v>
+        <v>2.008341139436932</v>
       </c>
       <c r="H9" t="n">
-        <v>19.40387634380021</v>
+        <v>19.39634732035143</v>
       </c>
       <c r="I9" t="n">
-        <v>69.17367361436496</v>
+        <v>69.1468330902628</v>
       </c>
       <c r="J9" t="n">
-        <v>189.8178475575841</v>
+        <v>189.7441951079428</v>
       </c>
       <c r="K9" t="n">
-        <v>324.4289352178439</v>
+        <v>324.3030514502173</v>
       </c>
       <c r="L9" t="n">
-        <v>436.2347404177245</v>
+        <v>436.0654741571287</v>
       </c>
       <c r="M9" t="n">
-        <v>509.0653662040589</v>
+        <v>508.8678404617174</v>
       </c>
       <c r="N9" t="n">
-        <v>522.5388116762073</v>
+        <v>522.3360580152222</v>
       </c>
       <c r="O9" t="n">
-        <v>478.0209264405676</v>
+        <v>477.835446451909</v>
       </c>
       <c r="P9" t="n">
-        <v>383.6539365378626</v>
+        <v>383.5050724947595</v>
       </c>
       <c r="Q9" t="n">
-        <v>256.4624964168761</v>
+        <v>256.3629847463706</v>
       </c>
       <c r="R9" t="n">
-        <v>124.7417227624141</v>
+        <v>124.6933209204791</v>
       </c>
       <c r="S9" t="n">
-        <v>37.31853601997903</v>
+        <v>37.30405581366404</v>
       </c>
       <c r="T9" t="n">
-        <v>8.098166376000174</v>
+        <v>8.095024154133947</v>
       </c>
       <c r="U9" t="n">
-        <v>0.1321789941675764</v>
+        <v>0.1321277065419035</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.684379313654579</v>
+        <v>1.683725746752562</v>
       </c>
       <c r="H10" t="n">
-        <v>14.97566335231072</v>
+        <v>14.96985254840006</v>
       </c>
       <c r="I10" t="n">
-        <v>50.65387972335773</v>
+        <v>50.63422518415887</v>
       </c>
       <c r="J10" t="n">
-        <v>119.0856174753787</v>
+        <v>119.0394102954061</v>
       </c>
       <c r="K10" t="n">
-        <v>195.694251168232</v>
+        <v>195.6183185772521</v>
       </c>
       <c r="L10" t="n">
-        <v>250.4212663227908</v>
+        <v>250.3240987490127</v>
       </c>
       <c r="M10" t="n">
-        <v>264.0341136849628</v>
+        <v>263.9316641023129</v>
       </c>
       <c r="N10" t="n">
-        <v>257.7559726067959</v>
+        <v>257.6559590462354</v>
       </c>
       <c r="O10" t="n">
-        <v>238.0793597154673</v>
+        <v>237.9869810046258</v>
       </c>
       <c r="P10" t="n">
-        <v>203.7180217169137</v>
+        <v>203.6389757708734</v>
       </c>
       <c r="Q10" t="n">
-        <v>141.0437987097484</v>
+        <v>140.9890713939804</v>
       </c>
       <c r="R10" t="n">
-        <v>75.73581895759588</v>
+        <v>75.70643221307425</v>
       </c>
       <c r="S10" t="n">
-        <v>29.35413767523479</v>
+        <v>29.34274778658781</v>
       </c>
       <c r="T10" t="n">
-        <v>7.196893431069563</v>
+        <v>7.194100917942762</v>
       </c>
       <c r="U10" t="n">
-        <v>0.09187523529024988</v>
+        <v>0.09183958618650347</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.497358587980253</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H11" t="n">
-        <v>56.29982363915278</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I11" t="n">
-        <v>211.9369169631089</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J11" t="n">
-        <v>466.5814384565895</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.2846274857937</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L11" t="n">
-        <v>867.5244153726945</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M11" t="n">
-        <v>965.2880661616883</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N11" t="n">
-        <v>980.9074362497873</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O11" t="n">
-        <v>926.2430767905586</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P11" t="n">
-        <v>790.5270366497959</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.652882217753</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R11" t="n">
-        <v>345.3234514022149</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S11" t="n">
-        <v>125.2710588236001</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
-        <v>24.06468721888357</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4397886870384202</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,49 +31831,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.941346153936796</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H12" t="n">
-        <v>28.40721153933695</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
         <v>99.52238</v>
       </c>
       <c r="J12" t="n">
-        <v>277.892708341897</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
-        <v>621.1511432094374</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N12" t="n">
-        <v>764.9951122030616</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O12" t="n">
-        <v>699.8210737395146</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P12" t="n">
-        <v>561.6681089916676</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.4602564218267</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.63421474527333</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T12" t="n">
-        <v>11.85568910292945</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935096153905787</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>2.465925809239505</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.92432219487488</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.15711433603894</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J13" t="n">
-        <v>174.340954713233</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.4957440189169</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L13" t="n">
-        <v>366.6159153118442</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M13" t="n">
-        <v>386.5450793519706</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N13" t="n">
-        <v>377.3539013357146</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O13" t="n">
-        <v>348.5474043823257</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P13" t="n">
-        <v>298.2425178738396</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.4876602627734</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R13" t="n">
-        <v>110.8769913863508</v>
+        <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.97436160283753</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T13" t="n">
-        <v>10.5362284576597</v>
+        <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345050441403368</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -32074,16 +32074,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
         <v>745.5466476862121</v>
@@ -32092,13 +32092,13 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>250.1723312270667</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
         <v>145.679503963964</v>
@@ -32311,28 +32311,28 @@
         <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>355.4083096598243</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
         <v>139.9817740860215</v>
@@ -32548,16 +32548,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>248.7449369209195</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
         <v>745.5466476862121</v>
@@ -32566,10 +32566,10 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
         <v>139.9817740860215</v>
@@ -32785,16 +32785,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>248.7449369209195</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
         <v>745.5466476862121</v>
@@ -32803,10 +32803,10 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
         <v>139.9817740860215</v>
@@ -33034,22 +33034,22 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>377.6350660745956</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
         <v>54.65449286742438</v>
@@ -33259,13 +33259,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
         <v>638.8832749473072</v>
@@ -33277,10 +33277,10 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P30" t="n">
-        <v>171.7382405950817</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
         <v>139.9817740860215</v>
@@ -33496,7 +33496,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
         <v>277.9958514420755</v>
@@ -33511,13 +33511,13 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>595.327537312171</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
         <v>139.9817740860215</v>
@@ -33733,7 +33733,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
         <v>277.9958514420755</v>
@@ -33748,13 +33748,13 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>595.327537312171</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
         <v>139.9817740860215</v>
@@ -33970,31 +33970,31 @@
         <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>620.1193660647499</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
         <v>145.679503963964</v>
@@ -34131,7 +34131,7 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J41" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663288</v>
       </c>
       <c r="K41" t="n">
         <v>699.5441750817575</v>
@@ -34207,7 +34207,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
         <v>277.9958514420755</v>
@@ -34216,19 +34216,19 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>518.439455159358</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
         <v>139.9817740860215</v>
@@ -34365,7 +34365,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J44" t="n">
         <v>466.7546155663283</v>
@@ -34444,7 +34444,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
         <v>277.9958514420755</v>
@@ -34459,10 +34459,10 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
-        <v>465.7451325200306</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P45" t="n">
         <v>133.9744074143302</v>
@@ -34698,28 +34698,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>28.47028331217709</v>
+        <v>28.47028331217712</v>
       </c>
       <c r="K2" t="n">
-        <v>93.92060305664467</v>
+        <v>93.92060305664472</v>
       </c>
       <c r="L2" t="n">
-        <v>153.7913200468045</v>
+        <v>153.7913200468046</v>
       </c>
       <c r="M2" t="n">
-        <v>203.1118067186565</v>
+        <v>203.1118067186566</v>
       </c>
       <c r="N2" t="n">
-        <v>211.0587806020922</v>
+        <v>211.0587806020923</v>
       </c>
       <c r="O2" t="n">
-        <v>185.8268607441512</v>
+        <v>185.8268607441513</v>
       </c>
       <c r="P2" t="n">
-        <v>123.7494305716377</v>
+        <v>123.7494305716378</v>
       </c>
       <c r="Q2" t="n">
-        <v>44.27132869117358</v>
+        <v>44.27132869117364</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34783,7 +34783,7 @@
         <v>172.7600739089029</v>
       </c>
       <c r="L3" t="n">
-        <v>148.2266905659562</v>
+        <v>148.2266905659563</v>
       </c>
       <c r="M3" t="n">
         <v>192.5259485823473</v>
@@ -34798,7 +34798,7 @@
         <v>118.240000033741</v>
       </c>
       <c r="Q3" t="n">
-        <v>28.61687799649638</v>
+        <v>28.61687799649641</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34865,7 +34865,7 @@
         <v>192.2171678043497</v>
       </c>
       <c r="M4" t="n">
-        <v>213.1601163458916</v>
+        <v>213.1601163458915</v>
       </c>
       <c r="N4" t="n">
         <v>213.581156752698</v>
@@ -34877,7 +34877,7 @@
         <v>131.2029511204531</v>
       </c>
       <c r="Q4" t="n">
-        <v>6.560263827496826</v>
+        <v>6.56026382749684</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34935,28 +34935,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>28.47028331217709</v>
+        <v>28.47028331217712</v>
       </c>
       <c r="K5" t="n">
-        <v>93.92060305664467</v>
+        <v>93.92060305664472</v>
       </c>
       <c r="L5" t="n">
-        <v>153.7913200468045</v>
+        <v>153.7913200468046</v>
       </c>
       <c r="M5" t="n">
-        <v>203.1118067186565</v>
+        <v>203.1118067186566</v>
       </c>
       <c r="N5" t="n">
-        <v>211.0587806020922</v>
+        <v>211.0587806020923</v>
       </c>
       <c r="O5" t="n">
-        <v>185.8268607441512</v>
+        <v>185.8268607441513</v>
       </c>
       <c r="P5" t="n">
-        <v>123.7494305716377</v>
+        <v>123.7494305716378</v>
       </c>
       <c r="Q5" t="n">
-        <v>44.27132869117358</v>
+        <v>44.27132869117364</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35017,25 +35017,25 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>75.43840481763047</v>
+        <v>75.4384048176305</v>
       </c>
       <c r="L6" t="n">
-        <v>148.2266905659562</v>
+        <v>148.2266905659563</v>
       </c>
       <c r="M6" t="n">
         <v>192.5259485823473</v>
       </c>
       <c r="N6" t="n">
-        <v>217.43861174566</v>
+        <v>212.1757243460657</v>
       </c>
       <c r="O6" t="n">
-        <v>263.7138800015061</v>
+        <v>171.6550983098281</v>
       </c>
       <c r="P6" t="n">
         <v>118.240000033741</v>
       </c>
       <c r="Q6" t="n">
-        <v>28.61687799649638</v>
+        <v>125.9385470877689</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35114,7 +35114,7 @@
         <v>131.2029511204531</v>
       </c>
       <c r="Q7" t="n">
-        <v>6.560263827496826</v>
+        <v>6.56026382749684</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35172,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>137.6579754225037</v>
+        <v>137.5343130705675</v>
       </c>
       <c r="K8" t="n">
-        <v>257.5646495407339</v>
+        <v>257.3793117313392</v>
       </c>
       <c r="L8" t="n">
-        <v>356.8062301067509</v>
+        <v>356.5763021655067</v>
       </c>
       <c r="M8" t="n">
-        <v>429.0050109457279</v>
+        <v>428.7491718087222</v>
       </c>
       <c r="N8" t="n">
-        <v>440.6071730376316</v>
+        <v>440.3471941559176</v>
       </c>
       <c r="O8" t="n">
-        <v>402.5828984949728</v>
+        <v>402.3374078091035</v>
       </c>
       <c r="P8" t="n">
-        <v>308.7456939637951</v>
+        <v>308.5361733430333</v>
       </c>
       <c r="Q8" t="n">
-        <v>183.1958181402557</v>
+        <v>183.038476879764</v>
       </c>
       <c r="R8" t="n">
-        <v>20.2916633093991</v>
+        <v>20.20013907234326</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35251,31 +35251,31 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>62.98022089091745</v>
+        <v>62.90656844127614</v>
       </c>
       <c r="K9" t="n">
-        <v>186.5874962434849</v>
+        <v>186.4616124758583</v>
       </c>
       <c r="L9" t="n">
-        <v>297.6803606378503</v>
+        <v>297.5110943772545</v>
       </c>
       <c r="M9" t="n">
-        <v>366.9313322820406</v>
+        <v>621.9919601401313</v>
       </c>
       <c r="N9" t="n">
-        <v>391.197099592874</v>
+        <v>640.1406900856972</v>
       </c>
       <c r="O9" t="n">
-        <v>521.8736946105089</v>
+        <v>335.2392020074646</v>
       </c>
       <c r="P9" t="n">
-        <v>568.1422977634695</v>
+        <v>249.5306650804292</v>
       </c>
       <c r="Q9" t="n">
-        <v>116.4807223308546</v>
+        <v>116.381210660349</v>
       </c>
       <c r="R9" t="n">
-        <v>24.58388860977097</v>
+        <v>24.53548676783592</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35330,28 +35330,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>25.72643735870597</v>
+        <v>25.68023017873332</v>
       </c>
       <c r="K10" t="n">
-        <v>173.4247593423491</v>
+        <v>173.3488267513693</v>
       </c>
       <c r="L10" t="n">
-        <v>278.011291583107</v>
+        <v>277.9141240093288</v>
       </c>
       <c r="M10" t="n">
-        <v>303.6179906468034</v>
+        <v>303.5155410641535</v>
       </c>
       <c r="N10" t="n">
-        <v>301.8881449860245</v>
+        <v>301.7881314254639</v>
       </c>
       <c r="O10" t="n">
-        <v>262.664487629507</v>
+        <v>262.5721089186654</v>
       </c>
       <c r="P10" t="n">
-        <v>200.9965809818072</v>
+        <v>200.9175350357669</v>
       </c>
       <c r="Q10" t="n">
-        <v>54.88175545805406</v>
+        <v>54.82702814228604</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35406,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.461027392703016</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J11" t="n">
-        <v>285.5355339299032</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.1947764408132</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L11" t="n">
-        <v>631.7580004027072</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>734.9418329344156</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N11" t="n">
-        <v>751.4943726531965</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>696.1448653688718</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P11" t="n">
-        <v>559.2940408945265</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.3471923433035</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R11" t="n">
-        <v>129.7379135880828</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35488,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>151.0550816752303</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
-        <v>479.0171092874191</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>633.6534001197283</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O12" t="n">
-        <v>557.2248292950702</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P12" t="n">
-        <v>427.6937015773374</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.4784823358052</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35567,28 +35567,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>80.9817745965602</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K13" t="n">
-        <v>264.226252193034</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L13" t="n">
-        <v>394.2059405721603</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
-        <v>426.1289563138112</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N13" t="n">
-        <v>421.4860737149432</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.1325322963654</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P13" t="n">
-        <v>295.5210771387331</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q13" t="n">
-        <v>120.325617011079</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35722,16 +35722,16 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J15" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
         <v>603.4126137641938</v>
@@ -35740,13 +35740,13 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>110.1905571410452</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35959,28 +35959,28 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J18" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
-        <v>213.2742757378061</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -36196,16 +36196,16 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J21" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>110.1905571410453</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
@@ -36214,10 +36214,10 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
@@ -36433,16 +36433,16 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>110.1905571410453</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
@@ -36451,10 +36451,10 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
@@ -36682,22 +36682,22 @@
         <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
-        <v>235.5010321525773</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36907,13 +36907,13 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
         <v>500.328895167433</v>
@@ -36925,10 +36925,10 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P30" t="n">
-        <v>37.7638331807514</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
@@ -37144,7 +37144,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
@@ -37159,13 +37159,13 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>463.9858252288377</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
@@ -37381,7 +37381,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
         <v>151.1582247754088</v>
@@ -37396,13 +37396,13 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>463.9858252288377</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
@@ -37618,31 +37618,31 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
-        <v>477.9853321427316</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37779,7 +37779,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J41" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396425</v>
       </c>
       <c r="K41" t="n">
         <v>479.454324036777</v>
@@ -37855,7 +37855,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
         <v>151.1582247754088</v>
@@ -37864,19 +37864,19 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
-        <v>376.3054212373396</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
@@ -38013,7 +38013,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
@@ -38092,7 +38092,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
         <v>151.1582247754088</v>
@@ -38107,10 +38107,10 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>334.4034204366973</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_17_27.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_17_27.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1779043.692598067</v>
+        <v>1780804.222900852</v>
       </c>
     </row>
     <row r="7">
@@ -661,22 +661,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E2" t="n">
         <v>263.7138800015062</v>
       </c>
-      <c r="D2" t="n">
-        <v>110.096520216718</v>
-      </c>
-      <c r="E2" t="n">
-        <v>0</v>
-      </c>
       <c r="F2" t="n">
-        <v>6.876045741711437</v>
+        <v>263.7138800015062</v>
       </c>
       <c r="G2" t="n">
-        <v>263.7138800015062</v>
+        <v>12.83417464571001</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>215.0845781150035</v>
       </c>
       <c r="I2" t="n">
         <v>115.3066195468971</v>
@@ -709,7 +709,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>152.7676931992223</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -724,7 +724,7 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>263.7138800015062</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -746,13 +746,13 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>136.0227195864234</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -785,10 +785,10 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>18.15252495527767</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>147.1499354121988</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
@@ -797,7 +797,7 @@
         <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
         <v>0</v>
@@ -806,7 +806,7 @@
         <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>90.33968495973951</v>
+        <v>1.219197308813423</v>
       </c>
     </row>
     <row r="4">
@@ -816,7 +816,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>44.73670803555299</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
@@ -831,10 +831,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>166.8836670385466</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>152.3821593358568</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -882,10 +882,10 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>68.98787350302072</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -898,73 +898,73 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>263.7138800015062</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>263.7138800015062</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>212.568965117905</v>
       </c>
       <c r="F5" t="n">
+        <v>6.876045741711437</v>
+      </c>
+      <c r="G5" t="n">
+        <v>12.83417464571001</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0</v>
+      </c>
+      <c r="O5" t="n">
+        <v>0</v>
+      </c>
+      <c r="P5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>0</v>
+      </c>
+      <c r="R5" t="n">
+        <v>0</v>
+      </c>
+      <c r="S5" t="n">
+        <v>0</v>
+      </c>
+      <c r="T5" t="n">
+        <v>0</v>
+      </c>
+      <c r="U5" t="n">
+        <v>0</v>
+      </c>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="n">
+        <v>0</v>
+      </c>
+      <c r="X5" t="n">
         <v>263.7138800015062</v>
       </c>
-      <c r="G5" t="n">
-        <v>263.7138800015062</v>
-      </c>
-      <c r="H5" t="n">
-        <v>0</v>
-      </c>
-      <c r="I5" t="n">
-        <v>115.3066195468971</v>
-      </c>
-      <c r="J5" t="n">
-        <v>0</v>
-      </c>
-      <c r="K5" t="n">
-        <v>0</v>
-      </c>
-      <c r="L5" t="n">
-        <v>0</v>
-      </c>
-      <c r="M5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N5" t="n">
-        <v>0</v>
-      </c>
-      <c r="O5" t="n">
-        <v>0</v>
-      </c>
-      <c r="P5" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>0</v>
-      </c>
-      <c r="R5" t="n">
-        <v>0</v>
-      </c>
-      <c r="S5" t="n">
-        <v>0</v>
-      </c>
-      <c r="T5" t="n">
-        <v>0</v>
-      </c>
-      <c r="U5" t="n">
-        <v>0</v>
-      </c>
-      <c r="V5" t="n">
-        <v>0</v>
-      </c>
-      <c r="W5" t="n">
-        <v>0</v>
-      </c>
-      <c r="X5" t="n">
-        <v>116.9725659584295</v>
-      </c>
       <c r="Y5" t="n">
-        <v>263.7138800015062</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -974,19 +974,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
@@ -1022,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>18.15252495527767</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -1031,19 +1031,19 @@
         <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>225.8544875035546</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>205.7729852034775</v>
+        <v>10.18456372565657</v>
       </c>
       <c r="Y6" t="n">
-        <v>107.2977824924682</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="7">
@@ -1059,7 +1059,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -1077,7 +1077,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>15.07219909888208</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1116,7 +1116,7 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>68.36004337105362</v>
+        <v>232.047715488148</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -1135,25 +1135,25 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>411.5491597882495</v>
+        <v>11.54915978824949</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>54.99887573130418</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1183,22 +1183,22 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>123.4854171348405</v>
+        <v>123.4854171348406</v>
       </c>
       <c r="T8" t="n">
-        <v>140.9399979330726</v>
+        <v>206.6645630646898</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.0453666896857</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -1226,13 +1226,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>133.558726859249</v>
+        <v>135.3351760237737</v>
       </c>
       <c r="H9" t="n">
-        <v>92.83909691614504</v>
+        <v>92.83909691614505</v>
       </c>
       <c r="I9" t="n">
-        <v>20.24979976115227</v>
+        <v>20.24979976115236</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1262,7 +1262,7 @@
         <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>134.3791152901738</v>
+        <v>132.6026661256442</v>
       </c>
       <c r="T9" t="n">
         <v>192.0697045406877</v>
@@ -1299,10 +1299,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>90.06308666747555</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1350,7 +1350,7 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>50.3457193218016</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
@@ -1420,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1435,7 +1435,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>369.7311006784686</v>
+        <v>369.7311006784694</v>
       </c>
       <c r="Y11" t="n">
         <v>386.2379386560536</v>
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>112.5133406574308</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
@@ -1539,7 +1539,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>165.5241382922688</v>
@@ -1578,7 +1578,7 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
         <v>217.4054503272883</v>
@@ -1587,7 +1587,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
-        <v>1.839588425939337</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
@@ -1596,7 +1596,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1624,7 +1624,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H14" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1660,7 +1660,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U14" t="n">
         <v>250.9057009881286</v>
@@ -1764,25 +1764,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>83.06560892428168</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>3.453391420151112</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1815,7 +1815,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>217.4054503272883</v>
@@ -1858,7 +1858,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>409.8033385187861</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H17" t="n">
         <v>283.1540821444137</v>
@@ -1906,7 +1906,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174136</v>
       </c>
       <c r="X17" t="n">
         <v>369.731100678469</v>
@@ -2001,22 +2001,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>138.2893995353463</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>120.7871326503967</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2098,7 +2098,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H20" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2244,16 +2244,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>139.1630968205461</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>99.17988875728673</v>
       </c>
       <c r="H22" t="n">
         <v>140.2947128462239</v>
@@ -2295,19 +2295,19 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695439</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2475,7 +2475,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>114.2821160880066</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
@@ -2484,7 +2484,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
@@ -2496,7 +2496,7 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>72.97607332171656</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2544,7 +2544,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2614,7 +2614,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V26" t="n">
-        <v>327.7522584701346</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
         <v>349.240968717413</v>
@@ -2712,13 +2712,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -2760,10 +2760,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>181.0262860016446</v>
+        <v>140.1230996349835</v>
       </c>
       <c r="T28" t="n">
         <v>217.4054503272883</v>
@@ -2781,7 +2781,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>80.08971311158706</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -2809,7 +2809,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H29" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2952,13 +2952,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>104.8913819999782</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
@@ -2967,10 +2967,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3006,13 +3006,13 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
-        <v>245.8796921214428</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
@@ -3043,7 +3043,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H32" t="n">
         <v>283.1540821444137</v>
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3204,7 +3204,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3234,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>9.146142788179482</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3268,7 +3268,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
-        <v>365.2728917710071</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
         <v>354.683041620683</v>
@@ -3325,7 +3325,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V35" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701346</v>
       </c>
       <c r="W35" t="n">
         <v>349.240968717413</v>
@@ -3429,19 +3429,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3471,16 +3471,16 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
-        <v>35.88641949135544</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
@@ -3666,7 +3666,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
@@ -3675,10 +3675,10 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>99.97427419833815</v>
       </c>
       <c r="H40" t="n">
-        <v>83.06560892428168</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3793,7 +3793,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T41" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U41" t="n">
         <v>250.9057009881286</v>
@@ -3900,25 +3900,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>110.0177171766856</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3948,7 +3948,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
-        <v>181.0262860016446</v>
+        <v>177.4940462744517</v>
       </c>
       <c r="T43" t="n">
         <v>217.4054503272883</v>
@@ -3960,7 +3960,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>225.7096553890372</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4143,16 +4143,16 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>3.006892987834117</v>
       </c>
       <c r="G46" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>83.06560892428168</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4182,7 +4182,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4306,22 +4306,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>788.4778634388467</v>
+        <v>900.5447187946892</v>
       </c>
       <c r="C2" t="n">
-        <v>522.1002068716687</v>
+        <v>900.5447187946892</v>
       </c>
       <c r="D2" t="n">
-        <v>410.8916005921556</v>
+        <v>900.5447187946892</v>
       </c>
       <c r="E2" t="n">
-        <v>410.8916005921556</v>
+        <v>634.1670622275112</v>
       </c>
       <c r="F2" t="n">
-        <v>403.9460998429521</v>
+        <v>367.7894056603332</v>
       </c>
       <c r="G2" t="n">
-        <v>137.5684432757741</v>
+        <v>354.8255928868888</v>
       </c>
       <c r="H2" t="n">
         <v>137.5684432757741</v>
@@ -4330,22 +4330,22 @@
         <v>21.0971104001205</v>
       </c>
       <c r="J2" t="n">
-        <v>49.28269087917579</v>
+        <v>49.28269087917585</v>
       </c>
       <c r="K2" t="n">
-        <v>142.2640879052542</v>
+        <v>142.2640879052541</v>
       </c>
       <c r="L2" t="n">
-        <v>294.5174947515907</v>
+        <v>294.5174947515903</v>
       </c>
       <c r="M2" t="n">
-        <v>495.5981834030605</v>
+        <v>495.5981834030603</v>
       </c>
       <c r="N2" t="n">
-        <v>704.5463761991318</v>
+        <v>704.5463761991316</v>
       </c>
       <c r="O2" t="n">
-        <v>888.5149683358414</v>
+        <v>888.5149683358413</v>
       </c>
       <c r="P2" t="n">
         <v>1011.026904601763</v>
@@ -4357,25 +4357,25 @@
         <v>1054.855520006025</v>
       </c>
       <c r="S2" t="n">
-        <v>1054.855520006025</v>
+        <v>900.5447187946892</v>
       </c>
       <c r="T2" t="n">
-        <v>1054.855520006025</v>
+        <v>900.5447187946892</v>
       </c>
       <c r="U2" t="n">
-        <v>1054.855520006025</v>
+        <v>900.5447187946892</v>
       </c>
       <c r="V2" t="n">
-        <v>1054.855520006025</v>
+        <v>900.5447187946892</v>
       </c>
       <c r="W2" t="n">
-        <v>1054.855520006025</v>
+        <v>900.5447187946892</v>
       </c>
       <c r="X2" t="n">
-        <v>788.4778634388467</v>
+        <v>900.5447187946892</v>
       </c>
       <c r="Y2" t="n">
-        <v>788.4778634388467</v>
+        <v>900.5447187946892</v>
       </c>
     </row>
     <row r="3">
@@ -4385,19 +4385,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>628.4157937665466</v>
+        <v>650.2565623210693</v>
       </c>
       <c r="C3" t="n">
-        <v>453.9627644854196</v>
+        <v>475.8035330399423</v>
       </c>
       <c r="D3" t="n">
-        <v>305.0283548241683</v>
+        <v>326.869123378691</v>
       </c>
       <c r="E3" t="n">
-        <v>305.0283548241683</v>
+        <v>167.6316683732355</v>
       </c>
       <c r="F3" t="n">
-        <v>158.4937968510533</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="G3" t="n">
         <v>21.0971104001205</v>
@@ -4412,49 +4412,49 @@
         <v>21.0971104001205</v>
       </c>
       <c r="K3" t="n">
-        <v>192.1295835699344</v>
+        <v>95.78113116957469</v>
       </c>
       <c r="L3" t="n">
-        <v>338.8740072302311</v>
+        <v>242.5255548298714</v>
       </c>
       <c r="M3" t="n">
-        <v>529.474696326755</v>
+        <v>433.1262439263952</v>
       </c>
       <c r="N3" t="n">
-        <v>739.52866342936</v>
+        <v>643.1802110290002</v>
       </c>
       <c r="O3" t="n">
-        <v>909.4672107560898</v>
+        <v>813.1187583557301</v>
       </c>
       <c r="P3" t="n">
-        <v>1026.524810789493</v>
+        <v>930.1763583891336</v>
       </c>
       <c r="Q3" t="n">
         <v>1054.855520006025</v>
       </c>
       <c r="R3" t="n">
-        <v>1036.519636212815</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="S3" t="n">
-        <v>887.8833378166546</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="T3" t="n">
-        <v>887.8833378166546</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="U3" t="n">
-        <v>887.8833378166546</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="V3" t="n">
-        <v>887.8833378166546</v>
+        <v>819.7034117742821</v>
       </c>
       <c r="W3" t="n">
-        <v>887.8833378166546</v>
+        <v>819.7034117742821</v>
       </c>
       <c r="X3" t="n">
-        <v>887.8833378166546</v>
+        <v>819.7034117742821</v>
       </c>
       <c r="Y3" t="n">
-        <v>796.6311307866147</v>
+        <v>818.4718993411373</v>
       </c>
     </row>
     <row r="4">
@@ -4464,22 +4464,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>803.5223344656631</v>
+        <v>788.8743468871886</v>
       </c>
       <c r="C4" t="n">
-        <v>634.5861515377562</v>
+        <v>619.9381639592817</v>
       </c>
       <c r="D4" t="n">
-        <v>484.4695121254205</v>
+        <v>469.821524546946</v>
       </c>
       <c r="E4" t="n">
-        <v>336.5564185430274</v>
+        <v>321.9084309645528</v>
       </c>
       <c r="F4" t="n">
-        <v>189.666471045117</v>
+        <v>175.0184834666425</v>
       </c>
       <c r="G4" t="n">
-        <v>21.0971104001205</v>
+        <v>175.0184834666425</v>
       </c>
       <c r="H4" t="n">
         <v>21.0971104001205</v>
@@ -4497,13 +4497,13 @@
         <v>316.708372655101</v>
       </c>
       <c r="M4" t="n">
-        <v>527.7368878375336</v>
+        <v>527.7368878375337</v>
       </c>
       <c r="N4" t="n">
-        <v>739.1822330227046</v>
+        <v>739.1822330227047</v>
       </c>
       <c r="O4" t="n">
-        <v>918.4699372075543</v>
+        <v>918.4699372075544</v>
       </c>
       <c r="P4" t="n">
         <v>1048.360858816803</v>
@@ -4530,10 +4530,10 @@
         <v>1054.855520006025</v>
       </c>
       <c r="X4" t="n">
-        <v>985.1707992959028</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="Y4" t="n">
-        <v>985.1707992959028</v>
+        <v>834.0629408624947</v>
       </c>
     </row>
     <row r="5">
@@ -4543,46 +4543,46 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>670.32375641013</v>
+        <v>788.4778634388467</v>
       </c>
       <c r="C5" t="n">
-        <v>670.32375641013</v>
+        <v>522.1002068716687</v>
       </c>
       <c r="D5" t="n">
-        <v>670.32375641013</v>
+        <v>255.7225503044907</v>
       </c>
       <c r="E5" t="n">
-        <v>670.32375641013</v>
+        <v>41.00642392276842</v>
       </c>
       <c r="F5" t="n">
-        <v>403.9460998429521</v>
+        <v>34.06092317356495</v>
       </c>
       <c r="G5" t="n">
-        <v>137.5684432757741</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="H5" t="n">
-        <v>137.5684432757741</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="I5" t="n">
         <v>21.0971104001205</v>
       </c>
       <c r="J5" t="n">
-        <v>49.28269087917556</v>
+        <v>49.28269087917579</v>
       </c>
       <c r="K5" t="n">
-        <v>142.264087905254</v>
+        <v>142.2640879052542</v>
       </c>
       <c r="L5" t="n">
-        <v>294.5174947515906</v>
+        <v>294.5174947515907</v>
       </c>
       <c r="M5" t="n">
         <v>495.5981834030605</v>
       </c>
       <c r="N5" t="n">
-        <v>704.5463761991317</v>
+        <v>704.5463761991318</v>
       </c>
       <c r="O5" t="n">
-        <v>888.5149683358416</v>
+        <v>888.5149683358414</v>
       </c>
       <c r="P5" t="n">
         <v>1011.026904601763</v>
@@ -4609,10 +4609,10 @@
         <v>1054.855520006025</v>
       </c>
       <c r="X5" t="n">
-        <v>936.7014129773081</v>
+        <v>788.4778634388467</v>
       </c>
       <c r="Y5" t="n">
-        <v>670.32375641013</v>
+        <v>788.4778634388467</v>
       </c>
     </row>
     <row r="6">
@@ -4622,16 +4622,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>21.0971104001205</v>
+        <v>650.2565623210693</v>
       </c>
       <c r="C6" t="n">
-        <v>21.0971104001205</v>
+        <v>475.8035330399423</v>
       </c>
       <c r="D6" t="n">
-        <v>21.0971104001205</v>
+        <v>326.869123378691</v>
       </c>
       <c r="E6" t="n">
-        <v>21.0971104001205</v>
+        <v>167.6316683732355</v>
       </c>
       <c r="F6" t="n">
         <v>21.0971104001205</v>
@@ -4670,28 +4670,28 @@
         <v>1054.855520006025</v>
       </c>
       <c r="R6" t="n">
-        <v>1054.855520006025</v>
+        <v>1036.519636212815</v>
       </c>
       <c r="S6" t="n">
-        <v>1054.855520006025</v>
+        <v>1036.519636212815</v>
       </c>
       <c r="T6" t="n">
-        <v>1054.855520006025</v>
+        <v>1036.519636212815</v>
       </c>
       <c r="U6" t="n">
-        <v>826.7196740428383</v>
+        <v>1036.519636212815</v>
       </c>
       <c r="V6" t="n">
-        <v>591.5675658110956</v>
+        <v>1036.519636212815</v>
       </c>
       <c r="W6" t="n">
-        <v>337.330209082894</v>
+        <v>1036.519636212815</v>
       </c>
       <c r="X6" t="n">
-        <v>129.4787088773612</v>
+        <v>1026.232198106091</v>
       </c>
       <c r="Y6" t="n">
-        <v>21.0971104001205</v>
+        <v>818.4718993411373</v>
       </c>
     </row>
     <row r="7">
@@ -4701,28 +4701,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>355.3743762745875</v>
+        <v>190.0332933280274</v>
       </c>
       <c r="C7" t="n">
-        <v>186.4381933466805</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="D7" t="n">
-        <v>36.32155393434482</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="E7" t="n">
-        <v>36.32155393434482</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="F7" t="n">
-        <v>36.32155393434482</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="G7" t="n">
-        <v>36.32155393434482</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="H7" t="n">
-        <v>36.32155393434482</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="I7" t="n">
-        <v>36.32155393434482</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="J7" t="n">
         <v>21.0971104001205</v>
@@ -4731,13 +4731,13 @@
         <v>126.4133765287947</v>
       </c>
       <c r="L7" t="n">
-        <v>316.7083726551009</v>
+        <v>316.708372655101</v>
       </c>
       <c r="M7" t="n">
-        <v>527.7368878375337</v>
+        <v>527.7368878375336</v>
       </c>
       <c r="N7" t="n">
-        <v>739.1822330227047</v>
+        <v>739.1822330227046</v>
       </c>
       <c r="O7" t="n">
         <v>918.4699372075544</v>
@@ -4764,13 +4764,13 @@
         <v>1054.855520006025</v>
       </c>
       <c r="W7" t="n">
-        <v>985.8049711463747</v>
+        <v>820.4638881998146</v>
       </c>
       <c r="X7" t="n">
-        <v>757.8154202483573</v>
+        <v>592.4743373017973</v>
       </c>
       <c r="Y7" t="n">
-        <v>537.0228411048272</v>
+        <v>371.6817581582671</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1236.169080611547</v>
+        <v>1642.433866040409</v>
       </c>
       <c r="C8" t="n">
-        <v>1236.169080611547</v>
+        <v>1273.471349099997</v>
       </c>
       <c r="D8" t="n">
-        <v>877.9033820047962</v>
+        <v>915.2056504932466</v>
       </c>
       <c r="E8" t="n">
-        <v>877.9033820047962</v>
+        <v>529.4173978950023</v>
       </c>
       <c r="F8" t="n">
-        <v>466.9174772151886</v>
+        <v>118.4314931053947</v>
       </c>
       <c r="G8" t="n">
-        <v>51.21125520685577</v>
+        <v>106.765675137466</v>
       </c>
       <c r="H8" t="n">
-        <v>51.21125520685577</v>
+        <v>106.765675137466</v>
       </c>
       <c r="I8" t="n">
-        <v>51.21125520685577</v>
+        <v>51.21125520685568</v>
       </c>
       <c r="J8" t="n">
-        <v>187.3702251467176</v>
+        <v>187.3702251467171</v>
       </c>
       <c r="K8" t="n">
-        <v>442.1757437607433</v>
+        <v>442.1757437607423</v>
       </c>
       <c r="L8" t="n">
-        <v>795.1862829045947</v>
+        <v>795.1862829045924</v>
       </c>
       <c r="M8" t="n">
-        <v>1219.64796299523</v>
+        <v>1219.647962995227</v>
       </c>
       <c r="N8" t="n">
-        <v>1655.591685209588</v>
+        <v>1655.591685209584</v>
       </c>
       <c r="O8" t="n">
-        <v>2053.905718940599</v>
+        <v>2053.905718940596</v>
       </c>
       <c r="P8" t="n">
-        <v>2359.356530550202</v>
+        <v>2359.356530550198</v>
       </c>
       <c r="Q8" t="n">
-        <v>2540.564622661169</v>
+        <v>2540.564622661164</v>
       </c>
       <c r="R8" t="n">
-        <v>2560.562760342789</v>
+        <v>2560.562760342784</v>
       </c>
       <c r="S8" t="n">
-        <v>2435.830015762142</v>
+        <v>2435.830015762137</v>
       </c>
       <c r="T8" t="n">
-        <v>2293.466381486311</v>
+        <v>2227.07793185841</v>
       </c>
       <c r="U8" t="n">
-        <v>2293.466381486311</v>
+        <v>1973.496753383979</v>
       </c>
       <c r="V8" t="n">
-        <v>1962.403494142741</v>
+        <v>1642.433866040409</v>
       </c>
       <c r="W8" t="n">
-        <v>1609.634838872626</v>
+        <v>1642.433866040409</v>
       </c>
       <c r="X8" t="n">
-        <v>1236.169080611547</v>
+        <v>1642.433866040409</v>
       </c>
       <c r="Y8" t="n">
-        <v>1236.169080611547</v>
+        <v>1642.433866040409</v>
       </c>
     </row>
     <row r="9">
@@ -4859,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>929.5097208010836</v>
+        <v>931.3041138965631</v>
       </c>
       <c r="C9" t="n">
-        <v>755.0566915199566</v>
+        <v>756.8510846154361</v>
       </c>
       <c r="D9" t="n">
-        <v>606.1222818587054</v>
+        <v>607.9166749541848</v>
       </c>
       <c r="E9" t="n">
-        <v>446.8848268532499</v>
+        <v>448.6792199487294</v>
       </c>
       <c r="F9" t="n">
-        <v>300.3502688801349</v>
+        <v>302.1446619756144</v>
       </c>
       <c r="G9" t="n">
         <v>165.4424639718026</v>
       </c>
       <c r="H9" t="n">
-        <v>71.66559839993889</v>
+        <v>71.66559839993887</v>
       </c>
       <c r="I9" t="n">
-        <v>51.21125520685577</v>
+        <v>51.21125520685568</v>
       </c>
       <c r="J9" t="n">
-        <v>113.4887579637191</v>
+        <v>113.4887579637188</v>
       </c>
       <c r="K9" t="n">
-        <v>298.0857543148188</v>
+        <v>298.0857543148181</v>
       </c>
       <c r="L9" t="n">
-        <v>592.6217377483008</v>
+        <v>592.6217377482996</v>
       </c>
       <c r="M9" t="n">
-        <v>1208.393778287031</v>
+        <v>1208.393778287028</v>
       </c>
       <c r="N9" t="n">
-        <v>1842.133061471871</v>
+        <v>1842.133061471867</v>
       </c>
       <c r="O9" t="n">
-        <v>2174.019871459261</v>
+        <v>2174.019871459257</v>
       </c>
       <c r="P9" t="n">
-        <v>2421.055229888886</v>
+        <v>2421.055229888881</v>
       </c>
       <c r="Q9" t="n">
-        <v>2536.272628442631</v>
+        <v>2536.272628442626</v>
       </c>
       <c r="R9" t="n">
-        <v>2560.562760342789</v>
+        <v>2560.562760342784</v>
       </c>
       <c r="S9" t="n">
-        <v>2424.826280251704</v>
+        <v>2426.620673347184</v>
       </c>
       <c r="T9" t="n">
-        <v>2230.816477685353</v>
+        <v>2232.610870780833</v>
       </c>
       <c r="U9" t="n">
-        <v>2002.726321751583</v>
+        <v>2004.520714847062</v>
       </c>
       <c r="V9" t="n">
-        <v>1767.57421351984</v>
+        <v>1769.368606615319</v>
       </c>
       <c r="W9" t="n">
-        <v>1513.336856791638</v>
+        <v>1515.131249887118</v>
       </c>
       <c r="X9" t="n">
-        <v>1305.485356586106</v>
+        <v>1307.279749681585</v>
       </c>
       <c r="Y9" t="n">
-        <v>1097.725057821152</v>
+        <v>1099.519450916631</v>
       </c>
     </row>
     <row r="10">
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>461.2368923627303</v>
+        <v>665.0671186274018</v>
       </c>
       <c r="C10" t="n">
-        <v>292.3007094348234</v>
+        <v>496.1309356994949</v>
       </c>
       <c r="D10" t="n">
-        <v>142.1840700224876</v>
+        <v>346.0142962871591</v>
       </c>
       <c r="E10" t="n">
-        <v>51.21125520685577</v>
+        <v>198.101202704766</v>
       </c>
       <c r="F10" t="n">
-        <v>51.21125520685577</v>
+        <v>51.21125520685568</v>
       </c>
       <c r="G10" t="n">
-        <v>51.21125520685577</v>
+        <v>51.21125520685568</v>
       </c>
       <c r="H10" t="n">
-        <v>51.21125520685577</v>
+        <v>51.21125520685568</v>
       </c>
       <c r="I10" t="n">
-        <v>51.21125520685577</v>
+        <v>51.21125520685568</v>
       </c>
       <c r="J10" t="n">
-        <v>76.63468308380176</v>
+        <v>76.63468308380152</v>
       </c>
       <c r="K10" t="n">
-        <v>248.2500215676573</v>
+        <v>248.2500215676569</v>
       </c>
       <c r="L10" t="n">
-        <v>523.3850043368928</v>
+        <v>523.3850043368921</v>
       </c>
       <c r="M10" t="n">
-        <v>823.8653899904048</v>
+        <v>823.8653899904036</v>
       </c>
       <c r="N10" t="n">
-        <v>1122.635640101614</v>
+        <v>1122.635640101613</v>
       </c>
       <c r="O10" t="n">
-        <v>1382.582027931093</v>
+        <v>1382.582027931091</v>
       </c>
       <c r="P10" t="n">
-        <v>1581.490387616502</v>
+        <v>1581.4903876165</v>
       </c>
       <c r="Q10" t="n">
-        <v>1635.769145477365</v>
+        <v>1635.769145477363</v>
       </c>
       <c r="R10" t="n">
-        <v>1635.769145477365</v>
+        <v>1635.769145477363</v>
       </c>
       <c r="S10" t="n">
-        <v>1635.769145477365</v>
+        <v>1635.769145477363</v>
       </c>
       <c r="T10" t="n">
-        <v>1635.769145477365</v>
+        <v>1635.769145477363</v>
       </c>
       <c r="U10" t="n">
-        <v>1635.769145477365</v>
+        <v>1635.769145477363</v>
       </c>
       <c r="V10" t="n">
-        <v>1381.084657271478</v>
+        <v>1584.91488353615</v>
       </c>
       <c r="W10" t="n">
-        <v>1091.667487234517</v>
+        <v>1295.497713499189</v>
       </c>
       <c r="X10" t="n">
-        <v>863.6779363365001</v>
+        <v>1067.508162601172</v>
       </c>
       <c r="Y10" t="n">
-        <v>642.88535719297</v>
+        <v>846.7155834576415</v>
       </c>
     </row>
     <row r="11">
@@ -5035,52 +5035,52 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M11" t="n">
         <v>2206.558663014779</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X11" t="n">
         <v>3094.515198591809</v>
@@ -5105,7 +5105,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5114,16 +5114,16 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J12" t="n">
         <v>243.4633055756266</v>
       </c>
       <c r="K12" t="n">
-        <v>577.3880777468471</v>
+        <v>577.3880777468473</v>
       </c>
       <c r="L12" t="n">
         <v>1072.713683962606</v>
@@ -5132,7 +5132,7 @@
         <v>1670.092171589158</v>
       </c>
       <c r="N12" t="n">
-        <v>2297.690135143765</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O12" t="n">
         <v>2553.061288060775</v>
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1016.58045691144</v>
+        <v>869.6905094135296</v>
       </c>
       <c r="C13" t="n">
-        <v>847.6442739835331</v>
+        <v>700.7543264856228</v>
       </c>
       <c r="D13" t="n">
-        <v>697.5276345711974</v>
+        <v>550.637687073287</v>
       </c>
       <c r="E13" t="n">
-        <v>549.6145409888043</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F13" t="n">
-        <v>402.7245934908939</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G13" t="n">
         <v>235.5284942057738</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M13" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P13" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R13" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S13" t="n">
-        <v>2446.96308358026</v>
+        <v>2264.108249235166</v>
       </c>
       <c r="T13" t="n">
-        <v>2227.361618603201</v>
+        <v>2044.506784258107</v>
       </c>
       <c r="U13" t="n">
-        <v>1938.286391947399</v>
+        <v>1755.431557602305</v>
       </c>
       <c r="V13" t="n">
-        <v>1936.428221820188</v>
+        <v>1500.747069396418</v>
       </c>
       <c r="W13" t="n">
-        <v>1647.011051783227</v>
+        <v>1211.329899359457</v>
       </c>
       <c r="X13" t="n">
-        <v>1419.02150088521</v>
+        <v>983.3403484614396</v>
       </c>
       <c r="Y13" t="n">
-        <v>1198.22892174168</v>
+        <v>983.3403484614396</v>
       </c>
     </row>
     <row r="14">
@@ -5260,37 +5260,37 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O14" t="n">
         <v>3640.42229106801</v>
@@ -5314,13 +5314,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5354,22 +5354,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J15" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K15" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L15" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M15" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N15" t="n">
-        <v>2299.457522348532</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O15" t="n">
         <v>2553.061288060775</v>
@@ -5412,22 +5412,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>513.8536007400712</v>
+        <v>878.3568999154069</v>
       </c>
       <c r="C16" t="n">
-        <v>344.9174178121643</v>
+        <v>709.4207169875</v>
       </c>
       <c r="D16" t="n">
-        <v>261.0127623330919</v>
+        <v>559.3040775751642</v>
       </c>
       <c r="E16" t="n">
-        <v>261.0127623330919</v>
+        <v>411.3909839927711</v>
       </c>
       <c r="F16" t="n">
-        <v>261.0127623330919</v>
+        <v>264.5010364948607</v>
       </c>
       <c r="G16" t="n">
-        <v>93.81666304797187</v>
+        <v>97.30493720974067</v>
       </c>
       <c r="H16" t="n">
         <v>93.81666304797187</v>
@@ -5463,25 +5463,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487567</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510508</v>
+        <v>2160.315914855604</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854706</v>
+        <v>1871.240688199802</v>
       </c>
       <c r="V16" t="n">
-        <v>1433.701365648819</v>
+        <v>1616.556199993915</v>
       </c>
       <c r="W16" t="n">
-        <v>1144.284195611858</v>
+        <v>1327.139029956954</v>
       </c>
       <c r="X16" t="n">
-        <v>916.2946447138411</v>
+        <v>1099.149479058937</v>
       </c>
       <c r="Y16" t="n">
-        <v>695.5020655703109</v>
+        <v>878.3568999154069</v>
       </c>
     </row>
     <row r="17">
@@ -5497,28 +5497,28 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I17" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
@@ -5533,31 +5533,31 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5579,7 +5579,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F18" t="n">
         <v>314.2396613568978</v>
@@ -5588,16 +5588,16 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I18" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J18" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K18" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L18" t="n">
         <v>1074.481071167373</v>
@@ -5606,7 +5606,7 @@
         <v>1671.859558793925</v>
       </c>
       <c r="N18" t="n">
-        <v>2299.457522348532</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O18" t="n">
         <v>2553.061288060775</v>
@@ -5649,28 +5649,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>695.5020655703109</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C19" t="n">
-        <v>555.8158034133954</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D19" t="n">
-        <v>555.8158034133954</v>
+        <v>363.7369613277355</v>
       </c>
       <c r="E19" t="n">
-        <v>407.9027098310023</v>
+        <v>215.8238677453423</v>
       </c>
       <c r="F19" t="n">
-        <v>261.0127623330919</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="G19" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J19" t="n">
         <v>174.0526814782957</v>
@@ -5734,16 +5734,16 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
         <v>93.81666304797187</v>
@@ -5755,16 +5755,16 @@
         <v>378.1925803111712</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
         <v>3640.42229106801</v>
@@ -5788,13 +5788,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5828,22 +5828,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J21" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K21" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L21" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M21" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N21" t="n">
-        <v>2299.457522348532</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O21" t="n">
         <v>2553.061288060775</v>
@@ -5886,19 +5886,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1092.345997432834</v>
+        <v>734.6461798836013</v>
       </c>
       <c r="C22" t="n">
-        <v>923.4098145049275</v>
+        <v>565.7099969556945</v>
       </c>
       <c r="D22" t="n">
-        <v>773.2931750925917</v>
+        <v>565.7099969556945</v>
       </c>
       <c r="E22" t="n">
-        <v>625.3800815101986</v>
+        <v>417.7969033733013</v>
       </c>
       <c r="F22" t="n">
-        <v>484.8112968429803</v>
+        <v>417.7969033733013</v>
       </c>
       <c r="G22" t="n">
         <v>317.6151975578602</v>
@@ -5943,19 +5943,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>1977.461080510508</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>1722.776592304621</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W22" t="n">
-        <v>1722.776592304621</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X22" t="n">
-        <v>1494.787041406604</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y22" t="n">
-        <v>1273.994462263074</v>
+        <v>916.2946447138411</v>
       </c>
     </row>
     <row r="23">
@@ -5983,25 +5983,25 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O23" t="n">
         <v>3640.42229106801</v>
@@ -6010,7 +6010,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R23" t="n">
         <v>4690.833152398593</v>
@@ -6025,7 +6025,7 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W23" t="n">
         <v>3467.980956852889</v>
@@ -6062,10 +6062,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I24" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J24" t="n">
         <v>245.2306927803937</v>
@@ -6123,28 +6123,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>580.0655846733346</v>
+        <v>801.6918836311989</v>
       </c>
       <c r="C25" t="n">
-        <v>411.1294017454277</v>
+        <v>632.7557007032921</v>
       </c>
       <c r="D25" t="n">
-        <v>261.0127623330919</v>
+        <v>482.6390612909563</v>
       </c>
       <c r="E25" t="n">
-        <v>261.0127623330919</v>
+        <v>334.7259677085632</v>
       </c>
       <c r="F25" t="n">
-        <v>261.0127623330919</v>
+        <v>334.7259677085632</v>
       </c>
       <c r="G25" t="n">
-        <v>93.81666304797187</v>
+        <v>167.5298684234431</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797187</v>
+        <v>167.5298684234431</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J25" t="n">
         <v>174.0526814782957</v>
@@ -6171,28 +6171,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U25" t="n">
-        <v>1688.385853854706</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V25" t="n">
-        <v>1433.701365648819</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W25" t="n">
-        <v>1144.284195611858</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X25" t="n">
-        <v>916.2946447138411</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y25" t="n">
-        <v>695.5020655703109</v>
+        <v>983.3403484614387</v>
       </c>
     </row>
     <row r="26">
@@ -6302,22 +6302,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J27" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K27" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L27" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M27" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N27" t="n">
-        <v>2299.457522348532</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O27" t="n">
         <v>2553.061288060775</v>
@@ -6360,10 +6360,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>653.7474797708871</v>
+        <v>803.8641191832229</v>
       </c>
       <c r="C28" t="n">
-        <v>484.8112968429803</v>
+        <v>634.927936255316</v>
       </c>
       <c r="D28" t="n">
         <v>484.8112968429803</v>
@@ -6408,28 +6408,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S28" t="n">
-        <v>2197.062545487567</v>
+        <v>2305.424599100479</v>
       </c>
       <c r="T28" t="n">
-        <v>1977.461080510508</v>
+        <v>2085.82313412342</v>
       </c>
       <c r="U28" t="n">
-        <v>1688.385853854706</v>
+        <v>1796.747907467618</v>
       </c>
       <c r="V28" t="n">
-        <v>1433.701365648819</v>
+        <v>1542.063419261731</v>
       </c>
       <c r="W28" t="n">
-        <v>1144.284195611858</v>
+        <v>1252.64624922477</v>
       </c>
       <c r="X28" t="n">
-        <v>916.2946447138411</v>
+        <v>1024.656698326753</v>
       </c>
       <c r="Y28" t="n">
-        <v>835.3959446011269</v>
+        <v>803.8641191832229</v>
       </c>
     </row>
     <row r="29">
@@ -6445,16 +6445,16 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
         <v>93.81666304797187</v>
@@ -6463,13 +6463,13 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M29" t="n">
         <v>2206.558663014779</v>
@@ -6499,13 +6499,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y29" t="n">
         <v>2704.375866615997</v>
@@ -6539,22 +6539,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J30" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K30" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L30" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M30" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N30" t="n">
-        <v>2299.457522348532</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O30" t="n">
         <v>2553.061288060775</v>
@@ -6597,25 +6597,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1098.667160263527</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C31" t="n">
-        <v>929.7309773356195</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D31" t="n">
-        <v>779.6143379232838</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="E31" t="n">
-        <v>631.7012443408906</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F31" t="n">
-        <v>484.8112968429803</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G31" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H31" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797187</v>
@@ -6654,19 +6654,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>1977.461080510508</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>1729.097755135313</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>1729.097755135313</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X31" t="n">
-        <v>1501.108204237296</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y31" t="n">
-        <v>1280.315625093766</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="32">
@@ -6682,13 +6682,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G32" t="n">
         <v>379.8308874362686</v>
@@ -6703,16 +6703,16 @@
         <v>378.1925803111712</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O32" t="n">
         <v>3640.42229106801</v>
@@ -6736,13 +6736,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y32" t="n">
         <v>2704.375866615997</v>
@@ -6834,22 +6834,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C34" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D34" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E34" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F34" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G34" t="n">
-        <v>235.5284942057738</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H34" t="n">
         <v>93.81666304797187</v>
@@ -6882,28 +6882,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W34" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X34" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y34" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="35">
@@ -6934,22 +6934,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J35" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O35" t="n">
         <v>3640.42229106801</v>
@@ -6973,13 +6973,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -7013,22 +7013,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J36" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K36" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L36" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M36" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N36" t="n">
-        <v>2299.457522348532</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O36" t="n">
         <v>2553.061288060775</v>
@@ -7071,22 +7071,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1016.58045691144</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C37" t="n">
-        <v>847.6442739835331</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D37" t="n">
-        <v>697.5276345711974</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E37" t="n">
-        <v>549.6145409888043</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F37" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G37" t="n">
-        <v>235.5284942057738</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H37" t="n">
         <v>93.81666304797187</v>
@@ -7119,28 +7119,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>2227.361618603201</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
-        <v>2191.112710026075</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V37" t="n">
-        <v>1936.428221820188</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W37" t="n">
-        <v>1647.011051783227</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X37" t="n">
-        <v>1419.02150088521</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y37" t="n">
-        <v>1198.22892174168</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="38">
@@ -7177,22 +7177,22 @@
         <v>378.1925803111715</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075817</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q38" t="n">
         <v>4562.265728852255</v>
@@ -7314,16 +7314,16 @@
         <v>344.9174178121643</v>
       </c>
       <c r="D40" t="n">
-        <v>344.9174178121643</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="E40" t="n">
-        <v>344.9174178121643</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="F40" t="n">
-        <v>344.9174178121643</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="G40" t="n">
-        <v>177.7213185270443</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H40" t="n">
         <v>93.81666304797187</v>
@@ -7399,31 +7399,31 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J41" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O41" t="n">
         <v>3640.42229106801</v>
@@ -7447,13 +7447,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y41" t="n">
         <v>2704.375866615997</v>
@@ -7545,25 +7545,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>513.8536007400712</v>
+        <v>806.8386896933887</v>
       </c>
       <c r="C43" t="n">
-        <v>402.7245934908939</v>
+        <v>637.9025067654818</v>
       </c>
       <c r="D43" t="n">
-        <v>402.7245934908939</v>
+        <v>637.9025067654818</v>
       </c>
       <c r="E43" t="n">
-        <v>402.7245934908939</v>
+        <v>489.9894131830887</v>
       </c>
       <c r="F43" t="n">
-        <v>402.7245934908939</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G43" t="n">
-        <v>235.5284942057738</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H43" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
@@ -7596,25 +7596,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2197.062545487567</v>
+        <v>2200.630464403924</v>
       </c>
       <c r="T43" t="n">
-        <v>1977.461080510508</v>
+        <v>1981.028999426865</v>
       </c>
       <c r="U43" t="n">
-        <v>1688.385853854706</v>
+        <v>1691.953772771063</v>
       </c>
       <c r="V43" t="n">
-        <v>1433.701365648819</v>
+        <v>1437.269284565176</v>
       </c>
       <c r="W43" t="n">
-        <v>1144.284195611858</v>
+        <v>1437.269284565176</v>
       </c>
       <c r="X43" t="n">
-        <v>916.2946447138411</v>
+        <v>1209.279733667159</v>
       </c>
       <c r="Y43" t="n">
-        <v>695.5020655703109</v>
+        <v>988.4871545236284</v>
       </c>
     </row>
     <row r="44">
@@ -7639,28 +7639,28 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H44" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J44" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
         <v>3640.42229106801</v>
@@ -7684,13 +7684,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y44" t="n">
         <v>2704.375866615997</v>
@@ -7782,22 +7782,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>513.8536007400712</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C46" t="n">
-        <v>344.9174178121643</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="D46" t="n">
-        <v>344.9174178121643</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="E46" t="n">
-        <v>344.9174178121643</v>
+        <v>264.0500279773688</v>
       </c>
       <c r="F46" t="n">
-        <v>344.9174178121643</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G46" t="n">
-        <v>177.7213185270443</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H46" t="n">
         <v>93.81666304797187</v>
@@ -7830,28 +7830,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S46" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T46" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U46" t="n">
-        <v>1688.385853854706</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V46" t="n">
-        <v>1433.701365648819</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W46" t="n">
-        <v>1144.284195611858</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X46" t="n">
-        <v>916.2946447138411</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y46" t="n">
-        <v>695.5020655703109</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
   </sheetData>
@@ -8060,7 +8060,7 @@
         <v>2.051220519418237</v>
       </c>
       <c r="K3" t="n">
-        <v>97.32166909127241</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -8078,7 +8078,7 @@
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>97.32166909127245</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8157,7 +8157,7 @@
         <v>135.0065633140411</v>
       </c>
       <c r="Q4" t="n">
-        <v>65.34295837775146</v>
+        <v>65.3429583777515</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -8540,10 +8540,10 @@
         <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>255.2581536004322</v>
+        <v>255.2581536004316</v>
       </c>
       <c r="N9" t="n">
-        <v>249.1463441538083</v>
+        <v>249.1463441538077</v>
       </c>
       <c r="O9" t="n">
         <v>0</v>
@@ -23415,7 +23415,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>67.31863952450645</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -23427,7 +23427,7 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -23436,7 +23436,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,10 +23463,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23475,7 +23475,7 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>250.2980548978887</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -23484,7 +23484,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -23652,25 +23652,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>65.54986409393068</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>136.8413214260728</v>
       </c>
       <c r="I16" t="n">
         <v>81.26583631856553</v>
@@ -23703,7 +23703,7 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23889,22 +23889,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>28.95742156328149</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>24.6339153725345</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
         <v>140.2947128462239</v>
@@ -24132,16 +24132,16 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>6.257951202385101</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>66.34424953498211</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -24183,19 +24183,19 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -24256,7 +24256,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>9.094947017729282e-13</v>
       </c>
       <c r="T23" t="n">
         <v>0</v>
@@ -24363,7 +24363,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>65.54986409393069</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -24372,7 +24372,7 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
@@ -24384,7 +24384,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>8.289762996848978</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,7 +24411,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24432,7 +24432,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -24600,13 +24600,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
@@ -24648,10 +24648,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>40.90318636666106</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24669,7 +24669,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>138.4949402405077</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24840,13 +24840,13 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>41.54258064659096</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
@@ -24855,10 +24855,10 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24894,13 +24894,13 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>6.257951202385186</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -25092,7 +25092,7 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I34" t="n">
         <v>81.26583631856553</v>
@@ -25122,7 +25122,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>57.2291039219422</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25317,19 +25317,19 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I37" t="n">
         <v>81.26583631856553</v>
@@ -25359,16 +25359,16 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>250.2980548978887</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -25554,7 +25554,7 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
@@ -25563,10 +25563,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>65.54986409393069</v>
       </c>
       <c r="H40" t="n">
-        <v>57.22910392194221</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
         <v>81.26583631856553</v>
@@ -25788,25 +25788,25 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>57.22910392194228</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25836,7 +25836,7 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>3.532239727192888</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -25848,7 +25848,7 @@
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -26031,16 +26031,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>142.4141550350971</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>57.22910392194221</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
         <v>81.26583631856553</v>
@@ -26070,7 +26070,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>878051.6420719661</v>
+        <v>878051.6420719662</v>
       </c>
     </row>
     <row r="7">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>878051.6420719662</v>
+        <v>878051.6420719661</v>
       </c>
     </row>
     <row r="9">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>878051.6420719661</v>
+        <v>878051.6420719662</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>878051.6420719662</v>
+        <v>878051.6420719661</v>
       </c>
     </row>
     <row r="12">
@@ -26313,46 +26313,46 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>554203.1946583914</v>
+        <v>554203.1946583912</v>
       </c>
       <c r="C2" t="n">
-        <v>554203.1946583913</v>
+        <v>554203.1946583912</v>
       </c>
       <c r="D2" t="n">
         <v>554203.1946583913</v>
       </c>
       <c r="E2" t="n">
-        <v>544823.9547907539</v>
+        <v>544823.9547907541</v>
       </c>
       <c r="F2" t="n">
-        <v>544823.954790754</v>
+        <v>544823.9547907538</v>
       </c>
       <c r="G2" t="n">
         <v>544823.9547907538</v>
       </c>
       <c r="H2" t="n">
+        <v>544823.9547907539</v>
+      </c>
+      <c r="I2" t="n">
+        <v>544823.9547907538</v>
+      </c>
+      <c r="J2" t="n">
+        <v>544823.9547907539</v>
+      </c>
+      <c r="K2" t="n">
+        <v>544823.9547907539</v>
+      </c>
+      <c r="L2" t="n">
         <v>544823.954790754</v>
       </c>
-      <c r="I2" t="n">
-        <v>544823.9547907537</v>
-      </c>
-      <c r="J2" t="n">
-        <v>544823.9547907538</v>
-      </c>
-      <c r="K2" t="n">
-        <v>544823.9547907544</v>
-      </c>
-      <c r="L2" t="n">
-        <v>544823.9547907541</v>
-      </c>
       <c r="M2" t="n">
-        <v>544823.9547907541</v>
+        <v>544823.9547907542</v>
       </c>
       <c r="N2" t="n">
         <v>544823.9547907538</v>
       </c>
       <c r="O2" t="n">
-        <v>544823.9547907538</v>
+        <v>544823.9547907539</v>
       </c>
       <c r="P2" t="n">
         <v>544823.9547907538</v>
@@ -26371,10 +26371,10 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>390680.0076580805</v>
+        <v>390680.0076580792</v>
       </c>
       <c r="E3" t="n">
-        <v>507909.2320606917</v>
+        <v>507909.2320606934</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26389,16 +26389,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>68999.15441911409</v>
+        <v>68999.15441911419</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>95270.23779101799</v>
+        <v>95270.23779101766</v>
       </c>
       <c r="M3" t="n">
-        <v>132717.9756954687</v>
+        <v>132717.975695469</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26423,10 +26423,10 @@
         <v>251227.3656190198</v>
       </c>
       <c r="D4" t="n">
-        <v>140465.2517501113</v>
+        <v>140465.2517501117</v>
       </c>
       <c r="E4" t="n">
-        <v>11167.03225179351</v>
+        <v>11167.03225179352</v>
       </c>
       <c r="F4" t="n">
         <v>11167.03225179351</v>
@@ -26475,7 +26475,7 @@
         <v>63047.8032042662</v>
       </c>
       <c r="D5" t="n">
-        <v>92902.86757567909</v>
+        <v>92902.86757567899</v>
       </c>
       <c r="E5" t="n">
         <v>101122.5298239071</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-440159.9547560877</v>
+        <v>-440159.954756088</v>
       </c>
       <c r="C6" t="n">
-        <v>239928.0258351053</v>
+        <v>239928.0258351051</v>
       </c>
       <c r="D6" t="n">
-        <v>-69844.93232547963</v>
+        <v>-69844.93232547851</v>
       </c>
       <c r="E6" t="n">
-        <v>-75722.21859999535</v>
+        <v>-75409.5772710756</v>
       </c>
       <c r="F6" t="n">
-        <v>432187.0134606964</v>
+        <v>432499.6547896178</v>
       </c>
       <c r="G6" t="n">
-        <v>432187.0134606962</v>
+        <v>432499.6547896174</v>
       </c>
       <c r="H6" t="n">
-        <v>432187.0134606964</v>
+        <v>432499.6547896175</v>
       </c>
       <c r="I6" t="n">
-        <v>432187.013460696</v>
+        <v>432499.6547896175</v>
       </c>
       <c r="J6" t="n">
-        <v>363187.859041582</v>
+        <v>363500.5003705033</v>
       </c>
       <c r="K6" t="n">
-        <v>432187.0134606967</v>
+        <v>432499.6547896175</v>
       </c>
       <c r="L6" t="n">
-        <v>336916.7756696785</v>
+        <v>337229.4169986</v>
       </c>
       <c r="M6" t="n">
-        <v>299469.0377652278</v>
+        <v>299781.6790941488</v>
       </c>
       <c r="N6" t="n">
-        <v>432187.0134606962</v>
+        <v>432499.6547896174</v>
       </c>
       <c r="O6" t="n">
-        <v>432187.0134606962</v>
+        <v>432499.6547896175</v>
       </c>
       <c r="P6" t="n">
-        <v>432187.0134606962</v>
+        <v>432499.6547896174</v>
       </c>
     </row>
   </sheetData>
@@ -26743,7 +26743,7 @@
         <v>614.0550137694784</v>
       </c>
       <c r="D3" t="n">
-        <v>933.7024595627843</v>
+        <v>933.7024595627831</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26795,16 +26795,16 @@
         <v>263.7138800015062</v>
       </c>
       <c r="D4" t="n">
-        <v>640.1406900856972</v>
+        <v>640.140690085696</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="F4" t="n">
         <v>1172.708288099648</v>
       </c>
       <c r="G4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="H4" t="n">
         <v>1172.708288099648</v>
@@ -26965,13 +26965,13 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>319.6474457933059</v>
+        <v>319.6474457933048</v>
       </c>
       <c r="E3" t="n">
-        <v>434.2730407788895</v>
+        <v>434.2730407788911</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>-4.313673211405653e-14</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -27017,10 +27017,10 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>376.426810084191</v>
+        <v>376.4268100841897</v>
       </c>
       <c r="E4" t="n">
-        <v>532.5675980139512</v>
+        <v>532.5675980139525</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,16 +27035,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>263.7138800015062</v>
+        <v>263.7138800015066</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>376.426810084191</v>
+        <v>376.4268100841897</v>
       </c>
       <c r="M4" t="n">
-        <v>532.5675980139512</v>
+        <v>532.5675980139525</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27263,10 +27263,10 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>376.426810084191</v>
+        <v>376.4268100841897</v>
       </c>
       <c r="M4" t="n">
-        <v>532.5675980139512</v>
+        <v>532.5675980139525</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27381,22 +27381,22 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>101.5590117695014</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>244.586521403965</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>118.2164900707556</v>
       </c>
       <c r="F2" t="n">
+        <v>143.1621657402052</v>
+      </c>
+      <c r="G2" t="n">
         <v>400</v>
       </c>
-      <c r="G2" t="n">
-        <v>149.1202946442038</v>
-      </c>
       <c r="H2" t="n">
-        <v>314.193632629268</v>
+        <v>99.10905451426447</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27429,7 +27429,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>152.7676931992223</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>212.2897156032232</v>
@@ -27444,7 +27444,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>106.0172206769628</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -27466,13 +27466,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>136.0227195864234</v>
       </c>
       <c r="H3" t="n">
         <v>99.47932027120974</v>
@@ -27505,10 +27505,10 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>18.15252495527767</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>147.1499354121988</v>
       </c>
       <c r="T3" t="n">
         <v>194.8409875848768</v>
@@ -27517,7 +27517,7 @@
         <v>225.8544875035546</v>
       </c>
       <c r="V3" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
         <v>251.6949831609196</v>
@@ -27526,7 +27526,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
-        <v>115.3430108175648</v>
+        <v>204.4634984684909</v>
       </c>
     </row>
     <row r="4">
@@ -27536,7 +27536,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>135.0952721463843</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27551,10 +27551,10 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.8836670385466</v>
       </c>
       <c r="H4" t="n">
-        <v>152.3821593358568</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>122.1505735248085</v>
@@ -27602,10 +27602,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>156.7217818860164</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27618,25 +27618,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>101.5590117695014</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>90.96916161917676</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>169.3614049543568</v>
       </c>
       <c r="F5" t="n">
-        <v>143.1621657402052</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>149.1202946442038</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
         <v>314.193632629268</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>115.3066195468971</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27681,10 +27681,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>252.7585347200395</v>
+        <v>106.0172206769628</v>
       </c>
       <c r="Y5" t="n">
-        <v>122.5240586545474</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27694,19 +27694,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
         <v>136.0227195864234</v>
@@ -27742,7 +27742,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>18.15252495527767</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
         <v>147.1499354121988</v>
@@ -27751,19 +27751,19 @@
         <v>194.8409875848768</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>225.8544875035546</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>195.5884214778209</v>
       </c>
       <c r="Y6" t="n">
-        <v>98.38491328483612</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -27779,7 +27779,7 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
@@ -27797,7 +27797,7 @@
         <v>122.1505735248085</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>15.07219909888208</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27836,7 +27836,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>218.1629549655374</v>
+        <v>54.47528284844296</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -27855,25 +27855,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
         <v>301.0334742203004</v>
       </c>
       <c r="I8" t="n">
-        <v>65.76608425465014</v>
+        <v>10.76720852334613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27906,19 +27906,19 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>65.7245651316172</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.0453666896856</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -27946,7 +27946,7 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>1.776449164524735</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -27982,7 +27982,7 @@
         <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>1.776449164529595</v>
       </c>
       <c r="T9" t="n">
         <v>0</v>
@@ -28019,10 +28019,10 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>56.37087597909363</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>166.3072536117062</v>
@@ -28031,7 +28031,7 @@
         <v>147.2573199590395</v>
       </c>
       <c r="I10" t="n">
-        <v>104.8162497430994</v>
+        <v>104.8162497430995</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28058,10 +28058,10 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>101.5869591640952</v>
+        <v>101.5869591640953</v>
       </c>
       <c r="S10" t="n">
-        <v>194.6738502503844</v>
+        <v>194.6738502503845</v>
       </c>
       <c r="T10" t="n">
         <v>220.7514885103387</v>
@@ -28070,7 +28070,7 @@
         <v>286.2271897703044</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>201.7919240020264</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -31515,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>3.753577726885562</v>
+        <v>3.753577726885557</v>
       </c>
       <c r="H8" t="n">
-        <v>38.44132789546677</v>
+        <v>38.44132789546673</v>
       </c>
       <c r="I8" t="n">
-        <v>144.7098053157558</v>
+        <v>144.7098053157556</v>
       </c>
       <c r="J8" t="n">
-        <v>318.5802175972537</v>
+        <v>318.5802175972534</v>
       </c>
       <c r="K8" t="n">
-        <v>477.4691627763197</v>
+        <v>477.4691627763191</v>
       </c>
       <c r="L8" t="n">
-        <v>592.3427171354939</v>
+        <v>592.3427171354931</v>
       </c>
       <c r="M8" t="n">
-        <v>659.0954050359949</v>
+        <v>659.0954050359941</v>
       </c>
       <c r="N8" t="n">
-        <v>669.7602577525086</v>
+        <v>669.7602577525078</v>
       </c>
       <c r="O8" t="n">
-        <v>632.4356192307903</v>
+        <v>632.4356192307895</v>
       </c>
       <c r="P8" t="n">
-        <v>539.7691690983029</v>
+        <v>539.7691690983022</v>
       </c>
       <c r="Q8" t="n">
-        <v>405.3441667542135</v>
+        <v>405.344166754213</v>
       </c>
       <c r="R8" t="n">
-        <v>235.7856768864754</v>
+        <v>235.7856768864751</v>
       </c>
       <c r="S8" t="n">
-        <v>85.53465245140484</v>
+        <v>85.53465245140472</v>
       </c>
       <c r="T8" t="n">
-        <v>16.43128649944155</v>
+        <v>16.43128649944154</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3002862181508449</v>
+        <v>0.3002862181508446</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>2.008341139436932</v>
+        <v>2.00834113943693</v>
       </c>
       <c r="H9" t="n">
-        <v>19.39634732035143</v>
+        <v>19.3963473203514</v>
       </c>
       <c r="I9" t="n">
-        <v>69.1468330902628</v>
+        <v>69.14683309026272</v>
       </c>
       <c r="J9" t="n">
-        <v>189.7441951079428</v>
+        <v>189.7441951079426</v>
       </c>
       <c r="K9" t="n">
-        <v>324.3030514502173</v>
+        <v>324.3030514502169</v>
       </c>
       <c r="L9" t="n">
-        <v>436.0654741571287</v>
+        <v>436.0654741571282</v>
       </c>
       <c r="M9" t="n">
-        <v>508.8678404617174</v>
+        <v>508.8678404617168</v>
       </c>
       <c r="N9" t="n">
-        <v>522.3360580152222</v>
+        <v>522.3360580152215</v>
       </c>
       <c r="O9" t="n">
-        <v>477.835446451909</v>
+        <v>477.8354464519085</v>
       </c>
       <c r="P9" t="n">
-        <v>383.5050724947595</v>
+        <v>383.505072494759</v>
       </c>
       <c r="Q9" t="n">
-        <v>256.3629847463706</v>
+        <v>256.3629847463702</v>
       </c>
       <c r="R9" t="n">
-        <v>124.6933209204791</v>
+        <v>124.6933209204789</v>
       </c>
       <c r="S9" t="n">
-        <v>37.30405581366404</v>
+        <v>37.304055813664</v>
       </c>
       <c r="T9" t="n">
-        <v>8.095024154133947</v>
+        <v>8.095024154133938</v>
       </c>
       <c r="U9" t="n">
-        <v>0.1321277065419035</v>
+        <v>0.1321277065419033</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.683725746752562</v>
+        <v>1.683725746752559</v>
       </c>
       <c r="H10" t="n">
-        <v>14.96985254840006</v>
+        <v>14.96985254840004</v>
       </c>
       <c r="I10" t="n">
-        <v>50.63422518415887</v>
+        <v>50.63422518415881</v>
       </c>
       <c r="J10" t="n">
-        <v>119.0394102954061</v>
+        <v>119.039410295406</v>
       </c>
       <c r="K10" t="n">
-        <v>195.6183185772521</v>
+        <v>195.6183185772519</v>
       </c>
       <c r="L10" t="n">
-        <v>250.3240987490127</v>
+        <v>250.3240987490124</v>
       </c>
       <c r="M10" t="n">
-        <v>263.9316641023129</v>
+        <v>263.9316641023125</v>
       </c>
       <c r="N10" t="n">
-        <v>257.6559590462354</v>
+        <v>257.6559590462351</v>
       </c>
       <c r="O10" t="n">
-        <v>237.9869810046258</v>
+        <v>237.9869810046255</v>
       </c>
       <c r="P10" t="n">
-        <v>203.6389757708734</v>
+        <v>203.6389757708731</v>
       </c>
       <c r="Q10" t="n">
-        <v>140.9890713939804</v>
+        <v>140.9890713939803</v>
       </c>
       <c r="R10" t="n">
-        <v>75.70643221307425</v>
+        <v>75.70643221307417</v>
       </c>
       <c r="S10" t="n">
-        <v>29.34274778658781</v>
+        <v>29.34274778658778</v>
       </c>
       <c r="T10" t="n">
-        <v>7.194100917942762</v>
+        <v>7.194100917942753</v>
       </c>
       <c r="U10" t="n">
-        <v>0.09183958618650347</v>
+        <v>0.09183958618650336</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H11" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L11" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S11" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,10 +31831,10 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H12" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I12" t="n">
         <v>99.52238</v>
@@ -31843,19 +31843,19 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422587</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473074</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862124</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071785</v>
+        <v>465.7451325200299</v>
       </c>
       <c r="O12" t="n">
-        <v>400.5469039565762</v>
+        <v>700.0808204437245</v>
       </c>
       <c r="P12" t="n">
         <v>133.9744074143302</v>
@@ -31867,13 +31867,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742438</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H13" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P13" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -32074,7 +32074,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J15" t="n">
         <v>277.9958514420755</v>
@@ -32089,10 +32089,10 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071785</v>
+        <v>465.7451325200306</v>
       </c>
       <c r="O15" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P15" t="n">
         <v>133.9744074143302</v>
@@ -32326,10 +32326,10 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071785</v>
+        <v>463.9598929192557</v>
       </c>
       <c r="O18" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P18" t="n">
         <v>133.9744074143302</v>
@@ -32548,7 +32548,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J21" t="n">
         <v>277.9958514420755</v>
@@ -32566,7 +32566,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>398.7616643558013</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P21" t="n">
         <v>133.9744074143302</v>
@@ -33022,7 +33022,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J27" t="n">
         <v>277.9958514420755</v>
@@ -33040,7 +33040,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>398.7616643558013</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P27" t="n">
         <v>133.9744074143302</v>
@@ -33259,7 +33259,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J30" t="n">
         <v>277.9958514420755</v>
@@ -33277,7 +33277,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>398.7616643558013</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P30" t="n">
         <v>133.9744074143302</v>
@@ -33733,7 +33733,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J36" t="n">
         <v>277.9958514420755</v>
@@ -33751,7 +33751,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>398.7616643558013</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P36" t="n">
         <v>133.9744074143302</v>
@@ -34131,7 +34131,7 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J41" t="n">
-        <v>466.7546155663288</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
         <v>699.5441750817575</v>
@@ -34780,7 +34780,7 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>172.7600739089029</v>
+        <v>75.4384048176305</v>
       </c>
       <c r="L3" t="n">
         <v>148.2266905659563</v>
@@ -34798,7 +34798,7 @@
         <v>118.240000033741</v>
       </c>
       <c r="Q3" t="n">
-        <v>28.61687799649641</v>
+        <v>125.9385470877689</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34865,7 +34865,7 @@
         <v>192.2171678043497</v>
       </c>
       <c r="M4" t="n">
-        <v>213.1601163458915</v>
+        <v>213.1601163458916</v>
       </c>
       <c r="N4" t="n">
         <v>213.581156752698</v>
@@ -34877,7 +34877,7 @@
         <v>131.2029511204531</v>
       </c>
       <c r="Q4" t="n">
-        <v>6.56026382749684</v>
+        <v>6.560263827496884</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -35172,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>137.5343130705675</v>
+        <v>137.5343130705671</v>
       </c>
       <c r="K8" t="n">
-        <v>257.3793117313392</v>
+        <v>257.3793117313386</v>
       </c>
       <c r="L8" t="n">
-        <v>356.5763021655067</v>
+        <v>356.5763021655059</v>
       </c>
       <c r="M8" t="n">
-        <v>428.7491718087222</v>
+        <v>428.7491718087214</v>
       </c>
       <c r="N8" t="n">
-        <v>440.3471941559176</v>
+        <v>440.3471941559168</v>
       </c>
       <c r="O8" t="n">
-        <v>402.3374078091035</v>
+        <v>402.3374078091027</v>
       </c>
       <c r="P8" t="n">
-        <v>308.5361733430333</v>
+        <v>308.5361733430327</v>
       </c>
       <c r="Q8" t="n">
-        <v>183.038476879764</v>
+        <v>183.0384768797635</v>
       </c>
       <c r="R8" t="n">
-        <v>20.20013907234326</v>
+        <v>20.20013907234298</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35251,31 +35251,31 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>62.90656844127614</v>
+        <v>62.90656844127591</v>
       </c>
       <c r="K9" t="n">
-        <v>186.4616124758583</v>
+        <v>186.4616124758579</v>
       </c>
       <c r="L9" t="n">
-        <v>297.5110943772545</v>
+        <v>297.511094377254</v>
       </c>
       <c r="M9" t="n">
-        <v>621.9919601401313</v>
+        <v>621.99196014013</v>
       </c>
       <c r="N9" t="n">
-        <v>640.1406900856972</v>
+        <v>640.140690085696</v>
       </c>
       <c r="O9" t="n">
-        <v>335.2392020074646</v>
+        <v>335.239202007464</v>
       </c>
       <c r="P9" t="n">
-        <v>249.5306650804292</v>
+        <v>249.5306650804288</v>
       </c>
       <c r="Q9" t="n">
-        <v>116.381210660349</v>
+        <v>116.3812106603487</v>
       </c>
       <c r="R9" t="n">
-        <v>24.53548676783592</v>
+        <v>24.53548676783576</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35330,28 +35330,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>25.68023017873332</v>
+        <v>25.68023017873318</v>
       </c>
       <c r="K10" t="n">
-        <v>173.3488267513693</v>
+        <v>173.348826751369</v>
       </c>
       <c r="L10" t="n">
-        <v>277.9141240093288</v>
+        <v>277.9141240093285</v>
       </c>
       <c r="M10" t="n">
-        <v>303.5155410641535</v>
+        <v>303.5155410641531</v>
       </c>
       <c r="N10" t="n">
-        <v>301.7881314254639</v>
+        <v>301.7881314254637</v>
       </c>
       <c r="O10" t="n">
-        <v>262.5721089186654</v>
+        <v>262.5721089186652</v>
       </c>
       <c r="P10" t="n">
-        <v>200.9175350357669</v>
+        <v>200.9175350357666</v>
       </c>
       <c r="Q10" t="n">
-        <v>54.82702814228604</v>
+        <v>54.82702814228587</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35406,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J11" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K11" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193516</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O11" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924728</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35488,22 +35488,22 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K12" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678997</v>
       </c>
       <c r="L12" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674332</v>
       </c>
       <c r="M12" t="n">
-        <v>603.4126137641938</v>
+        <v>603.412613764194</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238452</v>
+        <v>334.4034204366966</v>
       </c>
       <c r="O12" t="n">
-        <v>257.9506595121318</v>
+        <v>557.4845759992801</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
@@ -35567,22 +35567,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K13" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35722,7 +35722,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
         <v>151.1582247754088</v>
@@ -35737,10 +35737,10 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238452</v>
+        <v>334.4034204366973</v>
       </c>
       <c r="O15" t="n">
-        <v>256.1654199113569</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -35974,10 +35974,10 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238452</v>
+        <v>332.6181808359224</v>
       </c>
       <c r="O18" t="n">
-        <v>256.1654199113569</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
@@ -36196,7 +36196,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
         <v>151.1582247754088</v>
@@ -36214,7 +36214,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>256.1654199113569</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
@@ -36670,7 +36670,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
@@ -36688,7 +36688,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>256.1654199113569</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
@@ -36907,7 +36907,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
         <v>151.1582247754088</v>
@@ -36925,7 +36925,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>256.1654199113569</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
@@ -37381,7 +37381,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
         <v>151.1582247754088</v>
@@ -37399,7 +37399,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>256.1654199113569</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
@@ -37779,7 +37779,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J41" t="n">
-        <v>285.7087110396425</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
         <v>479.454324036777</v>
